--- a/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
+++ b/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
@@ -10989,8 +10989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK498"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="I401" sqref="I401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -28951,8 +28951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
+++ b/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
@@ -11186,8 +11186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V463"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11592,7 +11592,7 @@
       <c r="E7" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="61" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="4"/>
@@ -13060,7 +13060,7 @@
       <c r="E45" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="61" t="s">
         <v>109</v>
       </c>
       <c r="H45" s="25" t="s">
@@ -13447,7 +13447,7 @@
       <c r="E55" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="61" t="s">
         <v>107</v>
       </c>
       <c r="H55" s="25" t="s">
@@ -14262,7 +14262,7 @@
       <c r="E76" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="61" t="s">
         <v>181</v>
       </c>
       <c r="H76" s="25" t="s">
@@ -15074,7 +15074,7 @@
       <c r="E97" s="62" t="s">
         <v>582</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="61" t="s">
         <v>583</v>
       </c>
       <c r="H97" s="25" t="s">
@@ -16573,7 +16573,7 @@
       <c r="E137" s="62" t="s">
         <v>719</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F137" s="61" t="s">
         <v>720</v>
       </c>
       <c r="H137" s="25" t="s">
@@ -18189,7 +18189,7 @@
       <c r="E178" s="62" t="s">
         <v>846</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="F178" s="61" t="s">
         <v>847</v>
       </c>
       <c r="H178" s="25" t="s">
@@ -18808,7 +18808,7 @@
       <c r="E194" s="62" t="s">
         <v>972</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="F194" s="61" t="s">
         <v>973</v>
       </c>
       <c r="H194" s="25" t="s">
@@ -21328,7 +21328,7 @@
       <c r="E256" s="62" t="s">
         <v>1687</v>
       </c>
-      <c r="F256" s="6" t="s">
+      <c r="F256" s="61" t="s">
         <v>1688</v>
       </c>
       <c r="H256" s="25" t="s">
@@ -21923,7 +21923,7 @@
       <c r="E271" s="62" t="s">
         <v>1689</v>
       </c>
-      <c r="F271" s="6" t="s">
+      <c r="F271" s="61" t="s">
         <v>1691</v>
       </c>
       <c r="H271" s="25" t="s">
@@ -24022,7 +24022,7 @@
       <c r="E326" s="62" t="s">
         <v>1693</v>
       </c>
-      <c r="F326" s="6" t="s">
+      <c r="F326" s="61" t="s">
         <v>1694</v>
       </c>
       <c r="H326" s="25" t="s">
@@ -26533,7 +26533,7 @@
       <c r="E392" s="62" t="s">
         <v>1962</v>
       </c>
-      <c r="F392" s="6" t="s">
+      <c r="F392" s="61" t="s">
         <v>1963</v>
       </c>
       <c r="G392" s="23"/>
@@ -27613,7 +27613,7 @@
       <c r="E420" s="62" t="s">
         <v>2121</v>
       </c>
-      <c r="F420" s="6" t="s">
+      <c r="F420" s="61" t="s">
         <v>2122</v>
       </c>
       <c r="H420" s="25" t="s">
@@ -29742,7 +29742,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','qRes1', '2.Refused','2.Am¤§Z','2','');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="7" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A7" s="60">
         <v>6</v>
       </c>
@@ -29787,7 +29787,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','qRes1', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="60" customFormat="1" ht="28.5">
+    <row r="9" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A9" s="60">
         <v>8</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','qRes1', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="10" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A10" s="60">
         <v>9</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','qRes1', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="61" customFormat="1" ht="31.5">
+    <row r="11" spans="1:7" s="61" customFormat="1" ht="51">
       <c r="A11" s="60">
         <v>10</v>
       </c>
@@ -29855,7 +29855,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','qRes1', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes1_7Other');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="12" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A12" s="60">
         <v>11</v>
       </c>
@@ -29922,7 +29922,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','qRes2', '2.Refused','2.Am¤§Z','2','');</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="15" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A15" s="60">
         <v>14</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','qRes2', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="60" customFormat="1" ht="28.5">
+    <row r="17" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A17" s="60">
         <v>16</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','qRes2', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="18" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A18" s="60">
         <v>17</v>
       </c>
@@ -30011,7 +30011,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','qRes2', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="60" customFormat="1" ht="28.5">
+    <row r="19" spans="1:7" s="60" customFormat="1" ht="51">
       <c r="A19" s="60">
         <v>18</v>
       </c>
@@ -30035,7 +30035,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','qRes2', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes2_7Other');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="20" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A20" s="60">
         <v>19</v>
       </c>
@@ -30102,7 +30102,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','qRes3', '2.Refused','2.Am¤§Z','2','');</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="23" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A23" s="60">
         <v>22</v>
       </c>
@@ -30147,7 +30147,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','qRes3', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="60" customFormat="1" ht="28.5">
+    <row r="25" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A25" s="60">
         <v>24</v>
       </c>
@@ -30169,7 +30169,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','qRes3', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="26" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A26" s="60">
         <v>25</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','qRes3', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="60" customFormat="1" ht="28.5">
+    <row r="27" spans="1:7" s="60" customFormat="1" ht="51">
       <c r="A27" s="60">
         <v>26</v>
       </c>
@@ -30215,7 +30215,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','qRes3', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes3_7Other');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="28" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A28" s="60">
         <v>27</v>
       </c>
@@ -30512,7 +30512,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q_107', '4.CHRISTIANITY ','4.wLª÷vb','4','');</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5">
+    <row r="42" spans="1:7" ht="38.25">
       <c r="A42" s="60">
         <v>41</v>
       </c>
@@ -30578,7 +30578,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q_108', '2.Can write only','2.ïay wjL‡Z cv‡i','2','');</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5">
+    <row r="45" spans="1:7" ht="38.25">
       <c r="A45" s="60">
         <v>44</v>
       </c>
@@ -30707,7 +30707,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q_109', '4.NO','4.bv','4','q_111');</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="51" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A51" s="60">
         <v>50</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('50','q_109', '5.OTHER (Specify) ','5.Ab¨vb¨(wbw`©ó K‡i ejyb) ','6','q_109_other');</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5">
+    <row r="52" spans="1:7" ht="38.25">
       <c r="A52" s="60">
         <v>51</v>
       </c>
@@ -30794,7 +30794,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('53','q_111', '3.STUDENT ','3.QvÎ','3','');</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5">
+    <row r="55" spans="1:7" ht="38.25">
       <c r="A55" s="60">
         <v>54</v>
       </c>
@@ -30836,7 +30836,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('55','q_111', '5.HANDICRAFT ','5.n¯Íwkí','5','');</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5">
+    <row r="57" spans="1:7" ht="38.25">
       <c r="A57" s="60">
         <v>56</v>
       </c>
@@ -30857,7 +30857,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('56','q_111', '6.GARMENT WORKER','6.Mv‡g©›Um Kg©x','6','');</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5">
+    <row r="58" spans="1:7" ht="38.25">
       <c r="A58" s="60">
         <v>57</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('57','q_111', '7.DOMESTIC WORKER ','7.M„ncwiPvwiKv','7','');</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5">
+    <row r="59" spans="1:7" ht="38.25">
       <c r="A59" s="60">
         <v>58</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q_111', '8.GOVT. SERVICE','8.miKvix  PvKzwi','8','');</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5">
+    <row r="60" spans="1:7" ht="38.25">
       <c r="A60" s="60">
         <v>59</v>
       </c>
@@ -31004,7 +31004,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q_111', '13.DAY LABOUR','13.w`bgRyi','13','');</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5">
+    <row r="65" spans="1:7" ht="38.25">
       <c r="A65" s="60">
         <v>64</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q_111', '15.COOK ','15.ivuaywb','16','');</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5">
+    <row r="67" spans="1:7" ht="38.25">
       <c r="A67" s="60">
         <v>66</v>
       </c>
@@ -31067,7 +31067,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q_111', '16.SMALL TRADE ','16.‡QvU e¨emv (†`vKvb`vi bq)','16','');</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5">
+    <row r="68" spans="1:7" ht="38.25">
       <c r="A68" s="60">
         <v>67</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q_111', '96.OTHER (specify)','96.Ab¨vb¨(wbw`©ó K‡i ejyb) ','96','q_111_other');</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="25.5">
+    <row r="69" spans="1:7" ht="38.25">
       <c r="A69" s="60">
         <v>68</v>
       </c>
@@ -31112,7 +31112,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q_112', '1.THIS COMMUNITY/NEIGHBOURHOOD ','1.GB GjvKvq /cvovq','1','');</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="25.5">
+    <row r="70" spans="1:7" ht="38.25">
       <c r="A70" s="60">
         <v>69</v>
       </c>
@@ -31133,7 +31133,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q_112', '2.ANOTHER RURAL AREA/VILLAGE ','2.Ab¨ MÖvgxb GjvKvq/MÖv‡g','2','');</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="25.5">
+    <row r="71" spans="1:7" ht="38.25">
       <c r="A71" s="60">
         <v>70</v>
       </c>
@@ -31175,7 +31175,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q_112', '4.ANOTHER COUNTRY','4.Ab¨ †`‡k','4','');</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="25.5">
+    <row r="73" spans="1:7" ht="38.25">
       <c r="A73" s="60">
         <v>72</v>
       </c>
@@ -31238,7 +31238,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q_113', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="25.5">
+    <row r="76" spans="1:7" ht="38.25">
       <c r="A76" s="60">
         <v>75</v>
       </c>
@@ -31262,7 +31262,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q_113', '3.LIVING WITH FAMILY OF BIRTH','3.Rb¥cwiev‡ii mv‡_B evm Kwi','3','q_115');</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="25.5">
+    <row r="77" spans="1:7" ht="38.25">
       <c r="A77" s="60">
         <v>76</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q_114', '1.AT LEAST ONCE A WEEK ','1.Kgc‡¶ mßv‡n GKevi','1','');</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="25.5">
+    <row r="78" spans="1:7" ht="38.25">
       <c r="A78" s="60">
         <v>77</v>
       </c>
@@ -31304,7 +31304,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q_114', '2.AT LEAST ONCE A WEEK ','2.Kgc‡¶ gv‡m GKevi','2','');</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="25.5">
+    <row r="79" spans="1:7" ht="38.25">
       <c r="A79" s="60">
         <v>78</v>
       </c>
@@ -31325,7 +31325,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q_114', '3.AT LEAST ONCE A YEAR ','3.Kgc‡¶ eQ‡i GKevi','3','');</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5">
+    <row r="80" spans="1:7" ht="38.25">
       <c r="A80" s="60">
         <v>79</v>
       </c>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="H84" s="22"/>
     </row>
-    <row r="85" spans="1:8" ht="25.5">
+    <row r="85" spans="1:8" ht="38.25">
       <c r="A85" s="60">
         <v>84</v>
       </c>
@@ -31457,7 +31457,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q_116_yes_7', '7.ANY OTHER ORGANIZATION (such as microcredit)','7.Ab¨ †Kvb cÖwZôvb(‡hgb ÿz`ª FY) ','0','');</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.5">
+    <row r="86" spans="1:8" ht="38.25">
       <c r="A86" s="60">
         <v>85</v>
       </c>
@@ -31562,7 +31562,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('89','q_116_yes_2', '2.BRAC','2.eª¨vK','0','');</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.5">
+    <row r="91" spans="1:8" ht="38.25">
       <c r="A91" s="60">
         <v>90</v>
       </c>
@@ -31583,7 +31583,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('90','q_116_yes_1', '1.GRAMEEN BANK','1.MÖvgxb e¨vsK','0','');</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="92" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A92" s="60">
         <v>91</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('91','q_116_yes_Options', '1.At least once a week','1.Kgc‡¶ mßv‡n GKevi','1','');</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="93" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A93" s="60">
         <v>92</v>
       </c>
@@ -31625,7 +31625,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q_116_yes_Options', '2.At least once a month','2.Kgc‡¶ gv‡m GKevi','2','');</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="94" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A94" s="60">
         <v>93</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q_116_yes_Options', '3.At least once a year','3.Kgc‡¶ eQ‡i GKevi','3','');</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="23" customFormat="1" ht="30">
+    <row r="95" spans="1:8" s="23" customFormat="1" ht="38.25">
       <c r="A95" s="60">
         <v>94</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q_116_yes_Options', '4.Never (hardly ever)','4.KL‡bvB bv','4','');</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="25.5">
+    <row r="96" spans="1:8" ht="38.25">
       <c r="A96" s="60">
         <v>95</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q_117', '1.CURRENTLY MARRIED AND LIVING WITH PARTNER','1.eZ©gv‡b weevwnZ, ¯^vgxi mv‡_ _v‡Kb','1','q_119');</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30">
+    <row r="97" spans="1:7" ht="51">
       <c r="A97" s="60">
         <v>96</v>
       </c>
@@ -31736,7 +31736,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q_117', '3.SEPARATED','3.Avjv`v _v‡Kb','3','');</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="25.5">
+    <row r="99" spans="1:7" ht="38.25">
       <c r="A99" s="60">
         <v>98</v>
       </c>
@@ -31847,7 +31847,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q_118', '2.HUSBAND','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="25.5">
+    <row r="104" spans="1:7" ht="38.25">
       <c r="A104" s="60">
         <v>103</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q_121', '2.NO','2.bv','2','q_124');</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="25.5">
+    <row r="112" spans="1:7" ht="38.25">
       <c r="A112" s="60">
         <v>111</v>
       </c>
@@ -32045,7 +32045,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q_121', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','q_124');</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="25.5">
+    <row r="113" spans="1:7" ht="38.25">
       <c r="A113" s="60">
         <v>112</v>
       </c>
@@ -32069,7 +32069,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q_124', '1.BOTH CHOSE','1.AvcbvivB `yÕRb `yÕRb‡K cQ›` K‡iwQ‡jb','1','q_126');</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="25.5">
+    <row r="114" spans="1:7" ht="38.25">
       <c r="A114" s="60">
         <v>113</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q_124', '2.YOU CHOSE AND PARTNER AGREED','2.Avcwb cQ›` K‡iwQ‡jb Ges †m ivRx n‡qwQj','2','q_126');</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="25.5">
+    <row r="115" spans="1:7" ht="38.25">
       <c r="A115" s="60">
         <v>114</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q_124', '3.YOUR FAMILY CHOSE AND YOU AGREED','3.cwiev‡ii cQ‡›` we‡q K‡iwQ‡jb Ges Avcbvi gZ wQj','3','');</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="25.5">
+    <row r="116" spans="1:7" ht="38.25">
       <c r="A116" s="60">
         <v>115</v>
       </c>
@@ -32135,7 +32135,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q_124', '4.YOUR FAMILY CHOSE AND YOU DID NOT AGREED ','4.cwievi cQ›` K‡iwQj wKš‘ Avcbvi gZwQj bv','4','');</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="25.5">
+    <row r="117" spans="1:7" ht="38.25">
       <c r="A117" s="60">
         <v>116</v>
       </c>
@@ -32156,7 +32156,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q_124', '5.PARTNER CHOSE  AND YOU AGREED','5.†m cQ›` K‡iwQj Ges Avcbvi  gZ wQj','5','');</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="25.5">
+    <row r="118" spans="1:7" ht="38.25">
       <c r="A118" s="60">
         <v>117</v>
       </c>
@@ -32177,7 +32177,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('117','q_124', '6.PARTNER CHOSE  AND YOU DID NOT AGREED','6.†m cQ›` K‡iwQj Ges Avcbvi  gZ wQjbv','6','');</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="25.5">
+    <row r="119" spans="1:7" ht="38.25">
       <c r="A119" s="60">
         <v>118</v>
       </c>
@@ -32264,7 +32264,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('121','q_125', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="25.5">
+    <row r="123" spans="1:7" ht="38.25">
       <c r="A123" s="60">
         <v>122</v>
       </c>
@@ -32285,7 +32285,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('122','q_125', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="25.5">
+    <row r="124" spans="1:7" ht="38.25">
       <c r="A124" s="60">
         <v>123</v>
       </c>
@@ -32306,7 +32306,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('123','q_126', '1.YES, DURING MARRIAGE ','1.nu¨v, we‡qi mgq','1','');</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="25.5">
+    <row r="125" spans="1:7" ht="38.25">
       <c r="A125" s="60">
         <v>124</v>
       </c>
@@ -32327,7 +32327,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('124','q_126', '2.YES, AFTER MARRIAGE ','2.nu¨v, we‡qi c‡i','2','');</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="25.5">
+    <row r="126" spans="1:7" ht="38.25">
       <c r="A126" s="60">
         <v>125</v>
       </c>
@@ -32393,7 +32393,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('127','q_128', '1.ALL PAID','1.meUzKz cwi‡kvwaZ','1','');</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="25.5">
+    <row r="129" spans="1:7" ht="38.25">
       <c r="A129" s="60">
         <v>128</v>
       </c>
@@ -32414,7 +32414,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('128','q_128', '2.PARTIALLY PAID','2.AvswkK cwi‡kvwaZ','2','');</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="25.5">
+    <row r="130" spans="1:7" ht="38.25">
       <c r="A130" s="60">
         <v>129</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('129','q_128', '3.NONE PAID','3.GK`gB cwi‡kvwaZ bq','3','');</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="25.5">
+    <row r="131" spans="1:7" ht="38.25">
       <c r="A131" s="60">
         <v>130</v>
       </c>
@@ -32456,7 +32456,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('130','q_128', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwb bv / g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="25.5">
+    <row r="132" spans="1:7" ht="38.25">
       <c r="A132" s="60">
         <v>131</v>
       </c>
@@ -32582,7 +32582,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('136','q_201', '5.VERY POOR','5.Lye Lvivc','5','');</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="25.5">
+    <row r="138" spans="1:7" ht="38.25">
       <c r="A138" s="60">
         <v>137</v>
       </c>
@@ -32603,7 +32603,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('137','q_202', '1.NO PROBLEMS','1.†Kvb mgm¨v †bB','1','');</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="25.5">
+    <row r="139" spans="1:7" ht="38.25">
       <c r="A139" s="60">
         <v>138</v>
       </c>
@@ -32624,7 +32624,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('138','q_202', '2.VERY FEW PROBLEMS','2.Lye Aí mgm¨v Av‡Q','2','');</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="25.5">
+    <row r="140" spans="1:7" ht="38.25">
       <c r="A140" s="60">
         <v>139</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('139','q_202', '3.SOME PROBLEMS','3.wKQzUv mgm¨v Av‡Q','3','');</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="25.5">
+    <row r="141" spans="1:7" ht="38.25">
       <c r="A141" s="60">
         <v>140</v>
       </c>
@@ -32666,7 +32666,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('140','q_202', '4.MANY PROBLEMS','4.A‡bK mgm¨v Av‡Q','4','');</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="25.5">
+    <row r="142" spans="1:7" ht="38.25">
       <c r="A142" s="60">
         <v>141</v>
       </c>
@@ -32687,7 +32687,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('141','q_203', '1.NO PROBLEMS','1.†Kvb mgm¨v †bB','1','');</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="25.5">
+    <row r="143" spans="1:7" ht="38.25">
       <c r="A143" s="60">
         <v>142</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('142','q_203', '2.VERY FEW PROBLEMS','2.Lye Aí mgm¨v Av‡Q','2','');</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="25.5">
+    <row r="144" spans="1:7" ht="38.25">
       <c r="A144" s="60">
         <v>143</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('143','q_203', '3.SOME PROBLEMS','3.wKQzUv mgm¨v Av‡Q','3','');</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="25.5">
+    <row r="145" spans="1:7" ht="38.25">
       <c r="A145" s="60">
         <v>144</v>
       </c>
@@ -32750,7 +32750,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('144','q_203', '4.MANY PROBLEMS','4.A‡bK mgm¨v Av‡Q','4','');</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="25.5">
+    <row r="146" spans="1:7" ht="38.25">
       <c r="A146" s="60">
         <v>145</v>
       </c>
@@ -32771,7 +32771,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('145','q_204', '1.NO PAIN OR DISCOMFORT','1.†Kvb e¨v_v/ Amyweav †bB','1','');</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="25.5">
+    <row r="147" spans="1:7" ht="38.25">
       <c r="A147" s="60">
         <v>146</v>
       </c>
@@ -32792,7 +32792,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('146','q_204', '2.SLIGHT PAIN OR DISCOMFORT','2.Lye Aí e¨v_v ','2','');</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="25.5">
+    <row r="148" spans="1:7" ht="38.25">
       <c r="A148" s="60">
         <v>147</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('147','q_204', '3.MODERATE PAIN OR DISCOMFORT','3.†gvUv‡gvwU e¨v_v','3','');</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="25.5">
+    <row r="149" spans="1:7" ht="38.25">
       <c r="A149" s="60">
         <v>148</v>
       </c>
@@ -32834,7 +32834,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('148','q_204', '4.SEVERE PAIN OR DISCOMFORT','4.‡ekx e¨v_v','4','');</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="25.5">
+    <row r="150" spans="1:7" ht="38.25">
       <c r="A150" s="60">
         <v>149</v>
       </c>
@@ -32855,7 +32855,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('149','q_204', '5.EXTREME PAIN OR DISCOMFORT','5.A‡bK ‡ekx e¨v_v','5','');</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="25.5">
+    <row r="151" spans="1:7" ht="38.25">
       <c r="A151" s="60">
         <v>150</v>
       </c>
@@ -32876,7 +32876,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('150','q_205', '1.NO PROBLEMS','1.†Kvb mgm¨v †bB','1','');</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="25.5">
+    <row r="152" spans="1:7" ht="38.25">
       <c r="A152" s="60">
         <v>151</v>
       </c>
@@ -32897,7 +32897,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('151','q_205', '2.VERY FEW PROBLEMS','2.Lye Aí mgm¨v Av‡Q','2','');</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="25.5">
+    <row r="153" spans="1:7" ht="38.25">
       <c r="A153" s="60">
         <v>152</v>
       </c>
@@ -32918,7 +32918,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('152','q_205', '3.SOME PROBLEMS','3.wKQzUv mgm¨v Av‡Q','3','');</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="25.5">
+    <row r="154" spans="1:7" ht="38.25">
       <c r="A154" s="60">
         <v>153</v>
       </c>
@@ -32939,7 +32939,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('153','q_205', '4.MANY PROBLEMS','4.A‡bK mgm¨v Av‡Q','4','');</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="25.5">
+    <row r="155" spans="1:7" ht="38.25">
       <c r="A155" s="60">
         <v>154</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('154','q_206_3', 'c.To help you not feel sad or depressed?','M.Avcbvi gb Lvivc ev welbœZv Kgv‡bvi Rb¨?','0','');</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="25.5">
+    <row r="156" spans="1:7" ht="38.25">
       <c r="A156" s="60">
         <v>155</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('155','q_206_2', 'b.To relieve pain?','_.e¨v_v Kgv‡bvi Rb¨?','0','');</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="25.5">
+    <row r="157" spans="1:7" ht="38.25">
       <c r="A157" s="60">
         <v>156</v>
       </c>
@@ -33023,7 +33023,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('157','q_206_Options', '1.NO','1.bv','1','');</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="25.5">
+    <row r="159" spans="1:7" ht="38.25">
       <c r="A159" s="60">
         <v>158</v>
       </c>
@@ -33044,7 +33044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('158','q_206_Options', '2.ONCE OR TWICE','2.GK wK `yB evi','2','');</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="25.5">
+    <row r="160" spans="1:7" ht="38.25">
       <c r="A160" s="60">
         <v>159</v>
       </c>
@@ -33065,7 +33065,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('159','q_206_Options', '3.A FEW TIMES','3.†ek K‡qK evi','3','');</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="25.5">
+    <row r="161" spans="1:7" ht="38.25">
       <c r="A161" s="60">
         <v>160</v>
       </c>
@@ -33086,7 +33086,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('160','q_206_Options', '4.MANY TIMES','4.A‡bK evi','4','');</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="25.5">
+    <row r="162" spans="1:7" ht="38.25">
       <c r="A162" s="60">
         <v>161</v>
       </c>
@@ -33128,7 +33128,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q_207', 'B.DOCTOR','L.Wv³vi','2','');</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="25.5">
+    <row r="164" spans="1:7" ht="38.25">
       <c r="A164" s="60">
         <v>163</v>
       </c>
@@ -33149,7 +33149,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q_207', 'C.NURSE/ MIDWIFE ','M.bvm©/ avÎx','3','');</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="25.5">
+    <row r="165" spans="1:7" ht="38.25">
       <c r="A165" s="60">
         <v>164</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q_207', 'D.Govt. Health Worker','N.miKvix  ¯^v¯’¨Kgx©','4','');</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="25.5">
+    <row r="166" spans="1:7" ht="38.25">
       <c r="A166" s="60">
         <v>165</v>
       </c>
@@ -33233,7 +33233,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q_207', 'G.PHARMACIST','Q.Jla we‡µZv','7','');</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="25.5">
+    <row r="169" spans="1:7" ht="38.25">
       <c r="A169" s="60">
         <v>168</v>
       </c>
@@ -33254,7 +33254,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q_207', 'H.TRADITIONAL HEALER','R.mbvZb wPwKrmK','8','');</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="25.5">
+    <row r="170" spans="1:7" ht="38.25">
       <c r="A170" s="60">
         <v>169</v>
       </c>
@@ -33500,7 +33500,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('179','q_309', '2.NO','2.bv','2','msg401');</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="25.5">
+    <row r="181" spans="1:7" ht="38.25">
       <c r="A181" s="60">
         <v>180</v>
       </c>
@@ -33587,7 +33587,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('183','q_310', '3.INJECTABLES','3.Bb‡RKkb','3','');</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="25.5">
+    <row r="185" spans="1:7" ht="38.25">
       <c r="A185" s="60">
         <v>184</v>
       </c>
@@ -33629,7 +33629,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('185','q_310', '5.IUCD','5.AvBBDwmwW','5','');</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="25.5">
+    <row r="187" spans="1:7" ht="38.25">
       <c r="A187" s="60">
         <v>186</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('186','q_310', '6.FEMALE STERILIZATION','6.eÜ¨vZ¡KiY (gwnjv)','6','');</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="25.5">
+    <row r="188" spans="1:7" ht="38.25">
       <c r="A188" s="60">
         <v>187</v>
       </c>
@@ -33671,7 +33671,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('187','q_310', '7.MALE STERILIZATION','7eÜ¨vZ¡KiY (cyi“l)','7','');</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="25.5">
+    <row r="189" spans="1:7" ht="38.25">
       <c r="A189" s="60">
         <v>188</v>
       </c>
@@ -33692,7 +33692,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('188','q_310', '8.CALENDAR/MUCUS METHOD','8.K¨v‡jÛvi/wgDKvm c×wZ','8','');</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="25.5">
+    <row r="190" spans="1:7" ht="38.25">
       <c r="A190" s="60">
         <v>189</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('191','q_310', '96.OTHER','96.Ab¨vb¨','96','q_310_other');</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="25.5">
+    <row r="193" spans="1:7" ht="38.25">
       <c r="A193" s="60">
         <v>192</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('192','q_401', '1.BECOME PREGNANT THEN','1.ZLb Mf©aviY †P‡qwQjvg','1','');</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="25.5">
+    <row r="194" spans="1:7" ht="38.25">
       <c r="A194" s="60">
         <v>193</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('193','q_401', '2.WAIT UNTIL LATER','2.†`ix Ki‡Z †P‡qwQjvg','2','');</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="25.5">
+    <row r="195" spans="1:7" ht="38.25">
       <c r="A195" s="60">
         <v>194</v>
       </c>
@@ -33821,7 +33821,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('194','q_401', '3.NOT WANT CHILDREN','3.ev”Pv wb‡Z PvBwb','3','');</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="25.5">
+    <row r="196" spans="1:7" ht="38.25">
       <c r="A196" s="60">
         <v>195</v>
       </c>
@@ -33842,7 +33842,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('195','q_401', '4.NOT MIND EITHER WAY','4.‡KvbUv‡ZB AvcwË wQj bv','4','');</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="25.5">
+    <row r="197" spans="1:7" ht="38.25">
       <c r="A197" s="60">
         <v>196</v>
       </c>
@@ -33863,7 +33863,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('196','q_402', '1.BECOME PREGNANT THEN','1.ZLb Mf©aviY †P‡qwQ‡jb','1','');</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="25.5">
+    <row r="198" spans="1:7" ht="38.25">
       <c r="A198" s="60">
         <v>197</v>
       </c>
@@ -33884,7 +33884,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('197','q_402', '2.WAIT UNTIL LATER','2.†`ix Ki‡Z †P‡qwQ‡jb','2','');</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="25.5">
+    <row r="199" spans="1:7" ht="38.25">
       <c r="A199" s="60">
         <v>198</v>
       </c>
@@ -33905,7 +33905,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('198','q_402', '3.NOT WANT CHILDREN','3.ev”Pv wb‡Z Pvb wb','3','');</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="25.5">
+    <row r="200" spans="1:7" ht="38.25">
       <c r="A200" s="60">
         <v>199</v>
       </c>
@@ -33989,7 +33989,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q_403', '2.DOCTOR','2.Wv³vi','2','');</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="25.5">
+    <row r="204" spans="1:7" ht="51">
       <c r="A204" s="60">
         <v>203</v>
       </c>
@@ -34010,7 +34010,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('203','q_403', '3.OBSTETRICIAN/GYNAECOLOGIST','3.avÎxwe`¨vwekvi`/¯¿x†ivMwekvi`','3','');</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="25.5">
+    <row r="205" spans="1:7" ht="38.25">
       <c r="A205" s="60">
         <v>204</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q_403', '4.NURSE/MIDWIFE','4.†mweKv/avÎx','4','');</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="25.5">
+    <row r="206" spans="1:7" ht="38.25">
       <c r="A206" s="60">
         <v>205</v>
       </c>
@@ -34052,7 +34052,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('205','q_403', '5.FWV/CSBA/SBA/MA/SACMO','5.miKvix ¯^v¯’¨ Kg©x','5','');</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="25.5">
+    <row r="207" spans="1:7" ht="38.25">
       <c r="A207" s="60">
         <v>206</v>
       </c>
@@ -34073,7 +34073,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q_403', '6.NGO HEALTH WORKER ','6.Gb.wR.I.¯^v¯’¨ Kg©x','6','');</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="25.5">
+    <row r="208" spans="1:7" ht="38.25">
       <c r="A208" s="60">
         <v>207</v>
       </c>
@@ -34094,7 +34094,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q_403', '7.VILLAGE DOCTOR','7.cjøx wPwKrmK','7','');</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="25.5">
+    <row r="209" spans="1:7" ht="38.25">
       <c r="A209" s="60">
         <v>208</v>
       </c>
@@ -34160,7 +34160,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('210','q_404', '1.STOP','1.evav w`‡qwQ‡jb','1','');</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="25.5">
+    <row r="212" spans="1:7" ht="38.25">
       <c r="A212" s="60">
         <v>211</v>
       </c>
@@ -34181,7 +34181,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('211','q_404', '2.ENCOURAGE','2.DrmvwnZ K‡iwQ‡jb','2','');</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="25.5">
+    <row r="213" spans="1:7" ht="38.25">
       <c r="A213" s="60">
         <v>212</v>
       </c>
@@ -34244,7 +34244,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('214','q_405', '2.DAUGHTER','2.†g‡q','2','');</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="25.5">
+    <row r="216" spans="1:7" ht="38.25">
       <c r="A216" s="60">
         <v>215</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('218','q_406', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="25.5">
+    <row r="220" spans="1:7" ht="38.25">
       <c r="A220" s="60">
         <v>219</v>
       </c>
@@ -34349,7 +34349,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('219','q_406', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="25.5">
+    <row r="221" spans="1:7" ht="38.25">
       <c r="A221" s="60">
         <v>220</v>
       </c>
@@ -34391,7 +34391,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('221','q_410_4', 'd.TIMID','N.Lye fxZz A_ev jvRyK?','0','');</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="25.5">
+    <row r="223" spans="1:7" ht="38.25">
       <c r="A223" s="60">
         <v>222</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('222','q_410_3', 'c.WET BED','M.cÖvqB weQvbvq cÖmªve K‡i wfwR‡q ‡`q?','0','');</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="25.5">
+    <row r="224" spans="1:7" ht="38.25">
       <c r="A224" s="60">
         <v>223</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('223','q_410_2', 'b.SUCK THUMB','L.e„×v½yjx/Ab¨ †Kv‡bv Av½yj †Pv‡l?','0','');</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="25.5">
+    <row r="225" spans="1:7" ht="38.25">
       <c r="A225" s="60">
         <v>224</v>
       </c>
@@ -35696,7 +35696,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('283','q_531', '2.NO','2.bv','2','q_535');</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="25.5">
+    <row r="285" spans="1:7" ht="38.25">
       <c r="A285" s="60">
         <v>284</v>
       </c>
@@ -35762,7 +35762,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('286','q_532', '2.NO','2.bv','2','q_535');</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="25.5">
+    <row r="288" spans="1:7" ht="38.25">
       <c r="A288" s="60">
         <v>287</v>
       </c>
@@ -35825,7 +35825,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('289','q_533', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="25.5">
+    <row r="291" spans="1:7" ht="38.25">
       <c r="A291" s="60">
         <v>290</v>
       </c>
@@ -35888,7 +35888,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('292','q_534', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="25.5">
+    <row r="294" spans="1:7" ht="38.25">
       <c r="A294" s="60">
         <v>293</v>
       </c>
@@ -35993,7 +35993,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('297','q_601', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="25.5">
+    <row r="299" spans="1:7" ht="38.25">
       <c r="A299" s="60">
         <v>298</v>
       </c>
@@ -36014,7 +36014,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('298','q_601', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="25.5">
+    <row r="300" spans="1:7" ht="38.25">
       <c r="A300" s="60">
         <v>299</v>
       </c>
@@ -36077,7 +36077,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('301','q_602', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="25.5">
+    <row r="303" spans="1:7" ht="38.25">
       <c r="A303" s="60">
         <v>302</v>
       </c>
@@ -36098,7 +36098,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('302','q_602', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="25.5">
+    <row r="304" spans="1:7" ht="38.25">
       <c r="A304" s="60">
         <v>303</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('305','q_603', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="25.5">
+    <row r="307" spans="1:7" ht="38.25">
       <c r="A307" s="60">
         <v>306</v>
       </c>
@@ -36182,7 +36182,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('306','q_603', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="25.5">
+    <row r="308" spans="1:7" ht="38.25">
       <c r="A308" s="60">
         <v>307</v>
       </c>
@@ -36245,7 +36245,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('309','q_604', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="25.5">
+    <row r="311" spans="1:7" ht="38.25">
       <c r="A311" s="60">
         <v>310</v>
       </c>
@@ -36266,7 +36266,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('310','q_604', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="25.5">
+    <row r="312" spans="1:7" ht="38.25">
       <c r="A312" s="60">
         <v>311</v>
       </c>
@@ -36329,7 +36329,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('313','q_605', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="25.5">
+    <row r="315" spans="1:7" ht="38.25">
       <c r="A315" s="60">
         <v>314</v>
       </c>
@@ -36350,7 +36350,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('314','q_605', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="25.5">
+    <row r="316" spans="1:7" ht="38.25">
       <c r="A316" s="60">
         <v>315</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('317','q_606', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="25.5">
+    <row r="319" spans="1:7" ht="38.25">
       <c r="A319" s="60">
         <v>318</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('318','q_606', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="25.5">
+    <row r="320" spans="1:7" ht="38.25">
       <c r="A320" s="60">
         <v>319</v>
       </c>
@@ -36497,7 +36497,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('321','q_607', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="25.5">
+    <row r="323" spans="1:7" ht="38.25">
       <c r="A323" s="60">
         <v>322</v>
       </c>
@@ -36518,7 +36518,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('322','q_607', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="25.5">
+    <row r="324" spans="1:7" ht="38.25">
       <c r="A324" s="60">
         <v>323</v>
       </c>
@@ -36581,7 +36581,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('325','q_608', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="25.5">
+    <row r="327" spans="1:7" ht="38.25">
       <c r="A327" s="60">
         <v>326</v>
       </c>
@@ -36602,7 +36602,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('326','q_608', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="25.5">
+    <row r="328" spans="1:7" ht="38.25">
       <c r="A328" s="60">
         <v>327</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('329','q_609', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="25.5">
+    <row r="331" spans="1:7" ht="38.25">
       <c r="A331" s="60">
         <v>330</v>
       </c>
@@ -36686,7 +36686,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('330','q_609', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="25.5">
+    <row r="332" spans="1:7" ht="38.25">
       <c r="A332" s="60">
         <v>331</v>
       </c>
@@ -36749,7 +36749,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('333','q_610', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="25.5">
+    <row r="335" spans="1:7" ht="38.25">
       <c r="A335" s="60">
         <v>334</v>
       </c>
@@ -36770,7 +36770,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('334','q_610', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="25.5">
+    <row r="336" spans="1:7" ht="38.25">
       <c r="A336" s="60">
         <v>335</v>
       </c>
@@ -36833,7 +36833,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('337','q_611', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="25.5">
+    <row r="339" spans="1:7" ht="38.25">
       <c r="A339" s="60">
         <v>338</v>
       </c>
@@ -36854,7 +36854,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('338','q_611', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="25.5">
+    <row r="340" spans="1:7" ht="38.25">
       <c r="A340" s="60">
         <v>339</v>
       </c>
@@ -36917,7 +36917,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('341','q_612', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="25.5">
+    <row r="343" spans="1:7" ht="38.25">
       <c r="A343" s="60">
         <v>342</v>
       </c>
@@ -36938,7 +36938,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('342','q_612', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="25.5">
+    <row r="344" spans="1:7" ht="38.25">
       <c r="A344" s="60">
         <v>343</v>
       </c>
@@ -37001,7 +37001,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('345','q_613', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="25.5">
+    <row r="347" spans="1:7" ht="38.25">
       <c r="A347" s="60">
         <v>346</v>
       </c>
@@ -37022,7 +37022,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('346','q_613', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="25.5">
+    <row r="348" spans="1:7" ht="38.25">
       <c r="A348" s="60">
         <v>347</v>
       </c>
@@ -37085,7 +37085,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('349','q_614', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="25.5">
+    <row r="351" spans="1:7" ht="38.25">
       <c r="A351" s="60">
         <v>350</v>
       </c>
@@ -37106,7 +37106,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('350','q_614', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="25.5">
+    <row r="352" spans="1:7" ht="38.25">
       <c r="A352" s="60">
         <v>351</v>
       </c>
@@ -37169,7 +37169,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('353','q_615', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="25.5">
+    <row r="355" spans="1:7" ht="38.25">
       <c r="A355" s="60">
         <v>354</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('354','q_615', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="25.5">
+    <row r="356" spans="1:7" ht="38.25">
       <c r="A356" s="60">
         <v>355</v>
       </c>
@@ -37253,7 +37253,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('357','q_616', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="25.5">
+    <row r="359" spans="1:7" ht="38.25">
       <c r="A359" s="60">
         <v>358</v>
       </c>
@@ -37274,7 +37274,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('358','q_616', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="25.5">
+    <row r="360" spans="1:7" ht="38.25">
       <c r="A360" s="60">
         <v>359</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('361','q_617', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="25.5">
+    <row r="363" spans="1:7" ht="38.25">
       <c r="A363" s="60">
         <v>362</v>
       </c>
@@ -37358,7 +37358,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('362','q_617', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="25.5">
+    <row r="364" spans="1:7" ht="38.25">
       <c r="A364" s="60">
         <v>363</v>
       </c>
@@ -37421,7 +37421,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('365','q_618', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="25.5">
+    <row r="367" spans="1:7" ht="38.25">
       <c r="A367" s="60">
         <v>366</v>
       </c>
@@ -37442,7 +37442,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('366','q_618', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="25.5">
+    <row r="368" spans="1:7" ht="38.25">
       <c r="A368" s="60">
         <v>367</v>
       </c>
@@ -37505,7 +37505,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('369','q_619', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="25.5">
+    <row r="371" spans="1:7" ht="38.25">
       <c r="A371" s="60">
         <v>370</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('370','q_619', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="25.5">
+    <row r="372" spans="1:7" ht="38.25">
       <c r="A372" s="60">
         <v>371</v>
       </c>
@@ -37602,7 +37602,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('374','q_620', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="25.5">
+    <row r="376" spans="1:7" ht="38.25">
       <c r="A376" s="60">
         <v>375</v>
       </c>
@@ -37623,7 +37623,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('375','q_620', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="25.5">
+    <row r="377" spans="1:7" ht="38.25">
       <c r="A377" s="60">
         <v>376</v>
       </c>
@@ -37665,7 +37665,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('377','q_621', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="379" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="379" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A379" s="60">
         <v>378</v>
       </c>
@@ -37707,7 +37707,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('379','q_621', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="25.5">
+    <row r="381" spans="1:7" ht="38.25">
       <c r="A381" s="60">
         <v>380</v>
       </c>
@@ -37728,7 +37728,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('380','q_621', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="25.5">
+    <row r="382" spans="1:7" ht="38.25">
       <c r="A382" s="60">
         <v>381</v>
       </c>
@@ -37770,7 +37770,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('382','q_622', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="384" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A384" s="60">
         <v>383</v>
       </c>
@@ -37812,7 +37812,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('384','q_622', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="25.5">
+    <row r="386" spans="1:7" ht="38.25">
       <c r="A386" s="60">
         <v>385</v>
       </c>
@@ -37833,7 +37833,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('385','q_622', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="25.5">
+    <row r="387" spans="1:7" ht="38.25">
       <c r="A387" s="60">
         <v>386</v>
       </c>
@@ -37875,7 +37875,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('387','q_623', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="389" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="389" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A389" s="60">
         <v>388</v>
       </c>
@@ -37917,7 +37917,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('389','q_623', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="25.5">
+    <row r="391" spans="1:7" ht="38.25">
       <c r="A391" s="60">
         <v>390</v>
       </c>
@@ -37938,7 +37938,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('390','q_623', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="25.5">
+    <row r="392" spans="1:7" ht="38.25">
       <c r="A392" s="60">
         <v>391</v>
       </c>
@@ -37980,7 +37980,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('392','q_624', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="394" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="394" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A394" s="60">
         <v>393</v>
       </c>
@@ -38022,7 +38022,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('394','q_624', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="25.5">
+    <row r="396" spans="1:7" ht="38.25">
       <c r="A396" s="60">
         <v>395</v>
       </c>
@@ -38043,7 +38043,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('395','q_624', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="25.5">
+    <row r="397" spans="1:7" ht="38.25">
       <c r="A397" s="60">
         <v>396</v>
       </c>
@@ -38085,7 +38085,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('397','q_625', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="399" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A399" s="60">
         <v>398</v>
       </c>
@@ -38127,7 +38127,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('399','q_625', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="25.5">
+    <row r="401" spans="1:7" ht="38.25">
       <c r="A401" s="60">
         <v>400</v>
       </c>
@@ -38148,7 +38148,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('400','q_625', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="25.5">
+    <row r="402" spans="1:7" ht="38.25">
       <c r="A402" s="60">
         <v>401</v>
       </c>
@@ -38190,7 +38190,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('402','q_626', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="404" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A404" s="60">
         <v>403</v>
       </c>
@@ -38232,7 +38232,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('404','q_626', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="25.5">
+    <row r="406" spans="1:7" ht="38.25">
       <c r="A406" s="60">
         <v>405</v>
       </c>
@@ -38253,7 +38253,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('405','q_626', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="25.5">
+    <row r="407" spans="1:7" ht="38.25">
       <c r="A407" s="60">
         <v>406</v>
       </c>
@@ -38295,7 +38295,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('407','q_627', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="409" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="409" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A409" s="60">
         <v>408</v>
       </c>
@@ -38337,7 +38337,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('409','q_627', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="25.5">
+    <row r="411" spans="1:7" ht="38.25">
       <c r="A411" s="60">
         <v>410</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('410','q_627', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="25.5">
+    <row r="412" spans="1:7" ht="38.25">
       <c r="A412" s="60">
         <v>411</v>
       </c>
@@ -38400,7 +38400,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('412','q_628', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="414" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A414" s="60">
         <v>413</v>
       </c>
@@ -38442,7 +38442,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('414','q_628', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="25.5">
+    <row r="416" spans="1:7" ht="38.25">
       <c r="A416" s="60">
         <v>415</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('415','q_628', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="25.5">
+    <row r="417" spans="1:7" ht="38.25">
       <c r="A417" s="60">
         <v>416</v>
       </c>
@@ -38505,7 +38505,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('417','q_629', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="419" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="419" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A419" s="60">
         <v>418</v>
       </c>
@@ -38547,7 +38547,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('419','q_629', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="25.5">
+    <row r="421" spans="1:7" ht="38.25">
       <c r="A421" s="60">
         <v>420</v>
       </c>
@@ -38568,7 +38568,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('420','q_629', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="25.5">
+    <row r="422" spans="1:7" ht="38.25">
       <c r="A422" s="60">
         <v>421</v>
       </c>
@@ -38610,7 +38610,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('422','q_630', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="424" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="424" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A424" s="60">
         <v>423</v>
       </c>
@@ -38652,7 +38652,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('424','q_630', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="25.5">
+    <row r="426" spans="1:7" ht="38.25">
       <c r="A426" s="60">
         <v>425</v>
       </c>
@@ -38673,7 +38673,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('425','q_630', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="25.5">
+    <row r="427" spans="1:7" ht="38.25">
       <c r="A427" s="60">
         <v>426</v>
       </c>
@@ -38715,7 +38715,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('427','q_631', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="429" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="429" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A429" s="60">
         <v>428</v>
       </c>
@@ -38757,7 +38757,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('429','q_631', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="25.5">
+    <row r="431" spans="1:7" ht="38.25">
       <c r="A431" s="60">
         <v>430</v>
       </c>
@@ -38778,7 +38778,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('430','q_631', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="25.5">
+    <row r="432" spans="1:7" ht="38.25">
       <c r="A432" s="60">
         <v>431</v>
       </c>
@@ -38820,7 +38820,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('432','q_632', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="434" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="434" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A434" s="60">
         <v>433</v>
       </c>
@@ -38862,7 +38862,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('434','q_632', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="25.5">
+    <row r="436" spans="1:7" ht="38.25">
       <c r="A436" s="60">
         <v>435</v>
       </c>
@@ -38883,7 +38883,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('435','q_632', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="25.5">
+    <row r="437" spans="1:7" ht="38.25">
       <c r="A437" s="60">
         <v>436</v>
       </c>
@@ -38925,7 +38925,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('437','q_633', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="439" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="439" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A439" s="60">
         <v>438</v>
       </c>
@@ -38967,7 +38967,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('439','q_633', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="25.5">
+    <row r="441" spans="1:7" ht="38.25">
       <c r="A441" s="60">
         <v>440</v>
       </c>
@@ -38988,7 +38988,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('440','q_633', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="25.5">
+    <row r="442" spans="1:7" ht="38.25">
       <c r="A442" s="60">
         <v>441</v>
       </c>
@@ -39030,7 +39030,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('442','q_634', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="444" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A444" s="60">
         <v>443</v>
       </c>
@@ -39072,7 +39072,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('444','q_634', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="25.5">
+    <row r="446" spans="1:7" ht="38.25">
       <c r="A446" s="60">
         <v>445</v>
       </c>
@@ -39093,7 +39093,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('445','q_634', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="25.5">
+    <row r="447" spans="1:7" ht="38.25">
       <c r="A447" s="60">
         <v>446</v>
       </c>
@@ -39135,7 +39135,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('447','q_635', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="449" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="449" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A449" s="60">
         <v>448</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('449','q_635', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="25.5">
+    <row r="451" spans="1:7" ht="38.25">
       <c r="A451" s="60">
         <v>450</v>
       </c>
@@ -39198,7 +39198,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('450','q_635', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="25.5">
+    <row r="452" spans="1:7" ht="38.25">
       <c r="A452" s="60">
         <v>451</v>
       </c>
@@ -39240,7 +39240,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('452','q_636', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="454" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="454" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A454" s="60">
         <v>453</v>
       </c>
@@ -39282,7 +39282,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('454','q_636', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="25.5">
+    <row r="456" spans="1:7" ht="38.25">
       <c r="A456" s="60">
         <v>455</v>
       </c>
@@ -39303,7 +39303,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('455','q_636', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="25.5">
+    <row r="457" spans="1:7" ht="38.25">
       <c r="A457" s="60">
         <v>456</v>
       </c>
@@ -39345,7 +39345,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('457','q_637', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="459" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="459" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A459" s="60">
         <v>458</v>
       </c>
@@ -39387,7 +39387,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('459','q_637', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="25.5">
+    <row r="461" spans="1:7" ht="38.25">
       <c r="A461" s="60">
         <v>460</v>
       </c>
@@ -39408,7 +39408,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('460','q_637', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="25.5">
+    <row r="462" spans="1:7" ht="38.25">
       <c r="A462" s="60">
         <v>461</v>
       </c>
@@ -39450,7 +39450,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('462','q_638', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="464" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="464" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A464" s="60">
         <v>463</v>
       </c>
@@ -39492,7 +39492,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('464','q_638', '3.DO NOT AGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="25.5">
+    <row r="466" spans="1:7" ht="38.25">
       <c r="A466" s="60">
         <v>465</v>
       </c>
@@ -39513,7 +39513,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('465','q_638', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="25.5">
+    <row r="467" spans="1:7" ht="38.25">
       <c r="A467" s="60">
         <v>466</v>
       </c>
@@ -39534,7 +39534,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('466','q_638', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="25.5">
+    <row r="468" spans="1:7" ht="38.25">
       <c r="A468" s="60">
         <v>467</v>
       </c>
@@ -39555,7 +39555,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('467','q_639_4', 'd) He mistreats her','N.Zvi ¯^vgx Lvivc AvPib K‡i','0','');</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="25.5">
+    <row r="469" spans="1:7" ht="38.25">
       <c r="A469" s="60">
         <v>468</v>
       </c>
@@ -39576,7 +39576,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('468','q_639_3', 'c) She is sick','M.¯¿x Amy¯’ _v‡K','0','');</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="25.5">
+    <row r="470" spans="1:7" ht="38.25">
       <c r="A470" s="60">
         <v>469</v>
       </c>
@@ -39597,7 +39597,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('469','q_639_2', 'b) He is drunk','L.Zvi ¯^vgx gvZvj Ae¯’vq _v‡K','0','');</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="25.5">
+    <row r="471" spans="1:7" ht="38.25">
       <c r="A471" s="60">
         <v>470</v>
       </c>
@@ -39702,7 +39702,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('474','q_703', '1.YES, SCHOOL','1.nu¨v, ¯‹z‡j','1','');</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="25.5">
+    <row r="476" spans="1:7" ht="38.25">
       <c r="A476" s="60">
         <v>475</v>
       </c>
@@ -39855,7 +39855,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('481','q_705', '3.MECHANIC','3.†gKvwbK','3','');</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="25.5">
+    <row r="483" spans="1:7" ht="38.25">
       <c r="A483" s="60">
         <v>482</v>
       </c>
@@ -39876,7 +39876,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('482','q_705', '4.BUS/TRUCK DRIVER','4.evm/ UªvK WªvBfvi','4','');</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="25.5">
+    <row r="484" spans="1:7" ht="38.25">
       <c r="A484" s="60">
         <v>483</v>
       </c>
@@ -39939,7 +39939,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('485','q_705', '7.HANDICRAFTS','7.KzwUi wkí','7','');</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="25.5">
+    <row r="487" spans="1:7" ht="38.25">
       <c r="A487" s="60">
         <v>486</v>
       </c>
@@ -40002,7 +40002,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('488','q_705', '10.DAILY LABOUR','10.w`bgRyi','10','');</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="25.5">
+    <row r="490" spans="1:7" ht="38.25">
       <c r="A490" s="60">
         <v>489</v>
       </c>
@@ -40044,7 +40044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('490','q_705', '12.BIUSNESS (big)','12.eo e¨emv','12','');</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="25.5">
+    <row r="492" spans="1:7" ht="38.25">
       <c r="A492" s="60">
         <v>491</v>
       </c>
@@ -40065,7 +40065,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('491','q_705', '13.GOVT. SERVICE','13.miKvwi PvKzwi','13','');</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="25.5">
+    <row r="493" spans="1:7" ht="38.25">
       <c r="A493" s="60">
         <v>492</v>
       </c>
@@ -40107,7 +40107,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('493','q_705', '15.UNEMPLOYED','15.†eKvi','15','');</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="25.5">
+    <row r="495" spans="1:7" ht="38.25">
       <c r="A495" s="60">
         <v>494</v>
       </c>
@@ -40128,7 +40128,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('494','q_705', '16.GAEMENT WORKER','16.Mv‡g©›Um Kg©x','16','');</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="25.5">
+    <row r="496" spans="1:7" ht="38.25">
       <c r="A496" s="60">
         <v>495</v>
       </c>
@@ -40173,7 +40173,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('496','q_706', '1.EVERYDAY','1.cªwZw`b','1','');</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="25.5">
+    <row r="498" spans="1:7" ht="38.25">
       <c r="A498" s="60">
         <v>497</v>
       </c>
@@ -40194,7 +40194,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('497','q_706', '2.NEARLY EVERY DAY','2.cªvq cªwZw`b (mßv‡n 4-6 evi)','2','');</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="25.5">
+    <row r="499" spans="1:7" ht="38.25">
       <c r="A499" s="60">
         <v>498</v>
       </c>
@@ -40215,7 +40215,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('498','q_706', '3.1–3 times A WEEK','3.mßv‡n 1-3 evi','3','');</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="25.5">
+    <row r="500" spans="1:7" ht="38.25">
       <c r="A500" s="60">
         <v>499</v>
       </c>
@@ -40236,7 +40236,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('499','q_706', '4.1–3 TIMES IN A MONTH','4.gv‡m 1-3 evi','4','');</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="25.5">
+    <row r="501" spans="1:7" ht="38.25">
       <c r="A501" s="60">
         <v>500</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('501','q_706', '6.NEVER ','6.KLbB bv','6','q_709');</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="25.5">
+    <row r="503" spans="1:7" ht="38.25">
       <c r="A503" s="60">
         <v>502</v>
       </c>
@@ -40305,7 +40305,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('502','q_706', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','q_709');</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="25.5">
+    <row r="504" spans="1:7" ht="38.25">
       <c r="A504" s="60">
         <v>503</v>
       </c>
@@ -40389,7 +40389,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('506','q_707', '3.ONCE A MONTH','3.cÖwZ gv‡m','3','');</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="25.5">
+    <row r="508" spans="1:7" ht="38.25">
       <c r="A508" s="60">
         <v>507</v>
       </c>
@@ -40431,7 +40431,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('508','q_707', '5.NEVER ','5.KLbB bv','5','');</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="25.5">
+    <row r="510" spans="1:7" ht="38.25">
       <c r="A510" s="60">
         <v>509</v>
       </c>
@@ -40452,7 +40452,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('509','q_707', '8.DON’T KNOW/DON’T REMEMBER ','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="25.5">
+    <row r="511" spans="1:7" ht="38.25">
       <c r="A511" s="60">
         <v>510</v>
       </c>
@@ -40473,7 +40473,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('510','q_707', '9.REFUSED/NO ANSWER','9.cÖZ¨vL¨vb/ DËi †bB','9','');</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="25.5">
+    <row r="512" spans="1:7" ht="38.25">
       <c r="A512" s="60">
         <v>511</v>
       </c>
@@ -40581,7 +40581,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('515','q_708_Options', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="25.5">
+    <row r="517" spans="1:7" ht="38.25">
       <c r="A517" s="60">
         <v>516</v>
       </c>
@@ -40602,7 +40602,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('516','q_709', '1.NEARLY EVERY DAY','1.cªvq cªwZw`b (mßv‡n 4-6 evi)','1','');</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="25.5">
+    <row r="518" spans="1:7" ht="38.25">
       <c r="A518" s="60">
         <v>517</v>
       </c>
@@ -40623,7 +40623,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('517','q_709', '2.1–3 times A WEEK','2.mßv‡n 1-3 evi','2','');</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="25.5">
+    <row r="519" spans="1:7" ht="38.25">
       <c r="A519" s="60">
         <v>518</v>
       </c>
@@ -40644,7 +40644,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('518','q_709', '3.1–3 TIMES IN A MONTH','3.gv‡m 1-3 evi','3','');</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="25.5">
+    <row r="520" spans="1:7" ht="38.25">
       <c r="A520" s="60">
         <v>519</v>
       </c>
@@ -40686,7 +40686,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('520','q_709', '5.NEVER ','5.KLbB bv','5','');</v>
       </c>
     </row>
-    <row r="522" spans="1:7" s="23" customFormat="1" ht="25.5">
+    <row r="522" spans="1:7" s="23" customFormat="1" ht="38.25">
       <c r="A522" s="60">
         <v>521</v>
       </c>
@@ -40707,7 +40707,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('521','q_709', '6.IN THE PAST, NOT NOW','6.Av‡M Ki‡Zv GLb K‡i bv','6','');</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="25.5">
+    <row r="523" spans="1:7" ht="38.25">
       <c r="A523" s="60">
         <v>522</v>
       </c>
@@ -40728,7 +40728,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('522','q_709', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="25.5">
+    <row r="524" spans="1:7" ht="38.25">
       <c r="A524" s="60">
         <v>523</v>
       </c>
@@ -40794,7 +40794,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('525','q_710', '2.NO','2.bv','2','q_712');</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="25.5">
+    <row r="527" spans="1:7" ht="38.25">
       <c r="A527" s="60">
         <v>526</v>
       </c>
@@ -40860,7 +40860,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('528','q_711', '2.ONCE OR TWICE','2.2/1 evi','2','');</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="25.5">
+    <row r="530" spans="1:7" ht="38.25">
       <c r="A530" s="60">
         <v>529</v>
       </c>
@@ -40881,7 +40881,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('529','q_711', '3.A FEW (3-5) TIMES','3.K‡qKevi (3-5 evi)','3','');</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="25.5">
+    <row r="531" spans="1:7" ht="38.25">
       <c r="A531" s="60">
         <v>530</v>
       </c>
@@ -40902,7 +40902,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('530','q_711', '4.MANY (MORE THAN 5) TIMES','4.A‡bKevi (5ev‡ii †ekx)','4','');</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="25.5">
+    <row r="532" spans="1:7" ht="38.25">
       <c r="A532" s="60">
         <v>531</v>
       </c>
@@ -40923,7 +40923,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('531','q_711', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB)','8','');</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="25.5">
+    <row r="533" spans="1:7" ht="38.25">
       <c r="A533" s="60">
         <v>532</v>
       </c>
@@ -41011,7 +41011,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('535','q_712', '3.MAY HAVE','3.n‡Z cv‡i','3','');</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="25.5">
+    <row r="537" spans="1:7" ht="38.25">
       <c r="A537" s="60">
         <v>536</v>
       </c>
@@ -41098,7 +41098,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('539','q_713', '3.MAY HAVE','3.n‡Z cv‡i','3','');</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="25.5">
+    <row r="541" spans="1:7" ht="38.25">
       <c r="A541" s="60">
         <v>540</v>
       </c>
@@ -41119,7 +41119,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('540','q_713', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="27">
+    <row r="542" spans="1:7" ht="38.25">
       <c r="A542" s="60">
         <v>541</v>
       </c>
@@ -41140,7 +41140,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('541','q_801_4', 'd.His worries or feelings','N.Avcbvi ¯^vgxi fvebv wPšÍv, Abyf‚wZ (myL-`ytL, fvj jvMv, g›` jvMv)','0','');</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="25.5">
+    <row r="543" spans="1:7" ht="38.25">
       <c r="A543" s="60">
         <v>542</v>
       </c>
@@ -41161,7 +41161,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('542','q_801_3', 'c.Your worries or feelings','M.Avcbvi fvebv wPšÍv, Abyf‚wZ (myL-`ytL, fvj jvMv, g›` jvMv) ','0','');</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="30">
+    <row r="544" spans="1:7" ht="38.25">
       <c r="A544" s="60">
         <v>543</v>
       </c>
@@ -41182,7 +41182,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('543','q_801_2', 'b.Things that happen to you during the day','L.mvivw`b Avcwb wK K‡i‡Qb','0','');</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="25.5">
+    <row r="545" spans="1:7" ht="38.25">
       <c r="A545" s="60">
         <v>544</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('551','q_802', '4.OFTEN ','4.cÖvqB','4','');</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="45">
+    <row r="553" spans="1:7" ht="51">
       <c r="A553" s="60">
         <v>552</v>
       </c>
@@ -41371,7 +41371,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('552','q_803_7', 'g.Expects you to ask his permission before seeking health care for yourself','Q.Avkv K‡ib/Ki‡Zb †h Avcwb wb‡Ri wPwKrmv Kiv‡bvi Av‡M Zvi AbygwZ †b‡eb?','0','');</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="27">
+    <row r="554" spans="1:7" ht="51">
       <c r="A554" s="60">
         <v>553</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('553','q_803_6', 'f.Is often suspicious that you are unfaithful','P.Ab¨ cyiæ‡li mv‡_ Avcbvi m¤úK© Av‡Q e‡j cÖvqB m‡›`n K‡ib/Ki‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="27">
+    <row r="555" spans="1:7" ht="51">
       <c r="A555" s="60">
         <v>554</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('554','q_803_5', 'e.Gets angry if you speak with another man','O.Avcwb Ab¨ cyiæ‡li m‡½ K_v ej‡j­ Avcbvi ¯^vgx †i‡M hvb/‡h‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="27">
+    <row r="556" spans="1:7" ht="51">
       <c r="A556" s="60">
         <v>555</v>
       </c>
@@ -41434,7 +41434,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('555','q_803_4', 'd.Ignores you and treats you indifferently','N.Avcbv‡K cvËv †`b bv/AeÁv K‡ib ev Avcbvi e¨vcv‡i D`vmxb _v‡Kb / _vK‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="30">
+    <row r="557" spans="1:7" ht="51">
       <c r="A557" s="60">
         <v>556</v>
       </c>
@@ -41455,7 +41455,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('556','q_803_3', 'c.Insists on knowing where you are at all times','M.Avcwb KLb †Kv_vq _v‡Kb ev hvb Zv Rvbvi Rb¨ ‡RvivRywi K‡ib/Ki‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="27">
+    <row r="558" spans="1:7" ht="51">
       <c r="A558" s="60">
         <v>557</v>
       </c>
@@ -41476,7 +41476,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('557','q_803_2', 'b.Tries to restrict contact with your family of birth','L.Avcbvi Rb¥cwiev‡ii m‡½ †hvMv‡hv‡M evav w`‡Z †Póv K‡ib/Ki‡Zb?','0','');</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="27">
+    <row r="559" spans="1:7" ht="51">
       <c r="A559" s="60">
         <v>558</v>
       </c>
@@ -44097,7 +44097,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('675','q_808', '3.MANY TIMES','3.A‡bKevi','3','');</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="25.5">
+    <row r="677" spans="1:7" ht="38.25">
       <c r="A677" s="60">
         <v>676</v>
       </c>
@@ -44202,7 +44202,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('680','q_809', '4.&gt; 5TIMES ','4.5 ev‡ii †ekx','4','');</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="25.5">
+    <row r="682" spans="1:7" ht="38.25">
       <c r="A682" s="60">
         <v>681</v>
       </c>
@@ -44223,7 +44223,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('681','q_809', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="25.5">
+    <row r="683" spans="1:7" ht="38.25">
       <c r="A683" s="60">
         <v>682</v>
       </c>
@@ -44289,7 +44289,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('684','q_810', '2.NO','2.bv','2','q_812');</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="25.5">
+    <row r="686" spans="1:7" ht="38.25">
       <c r="A686" s="60">
         <v>685</v>
       </c>
@@ -44355,7 +44355,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('687','q_812', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="25.5">
+    <row r="689" spans="1:7" ht="38.25">
       <c r="A689" s="60">
         <v>688</v>
       </c>
@@ -44376,7 +44376,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('688','q_812', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="25.5">
+    <row r="690" spans="1:7" ht="38.25">
       <c r="A690" s="60">
         <v>689</v>
       </c>
@@ -44439,7 +44439,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('691','q_813_2', '2.HUSBAND ','2.¯^vgx','1','');</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="25.5">
+    <row r="693" spans="1:7" ht="38.25">
       <c r="A693" s="60">
         <v>692</v>
       </c>
@@ -44460,7 +44460,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('692','q_813_3', '3.PARENT IN LAWS','3.k¦ïi/ kvïwo','1','');</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="25.5">
+    <row r="694" spans="1:7" ht="38.25">
       <c r="A694" s="60">
         <v>693</v>
       </c>
@@ -44502,7 +44502,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('694','q_813_5', '5.NEIGHBOURS ','5.cÖwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="25.5">
+    <row r="696" spans="1:7" ht="38.25">
       <c r="A696" s="60">
         <v>695</v>
       </c>
@@ -44523,7 +44523,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('695','q_813_6', '6.STRENGERS ','6.AcwiwPZ †KD ','1','');</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="25.5">
+    <row r="697" spans="1:7" ht="38.25">
       <c r="A697" s="60">
         <v>696</v>
       </c>
@@ -44592,7 +44592,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('698','q_901', '2.NO','2.bv','2','q_904');</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="25.5">
+    <row r="700" spans="1:7" ht="38.25">
       <c r="A700" s="60">
         <v>699</v>
       </c>
@@ -44613,7 +44613,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('699','q_901', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="25.5">
+    <row r="701" spans="1:7" ht="38.25">
       <c r="A701" s="60">
         <v>700</v>
       </c>
@@ -44655,7 +44655,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('701','q_902_a', '1.ONCE/TWICE','1.GKevi/`yevi','1','');</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="25.5">
+    <row r="703" spans="1:7" ht="38.25">
       <c r="A703" s="60">
         <v>702</v>
       </c>
@@ -44676,7 +44676,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('702','q_902_a', '2.SEVERAL (3-5) TIMES','2.K‡qKevi/3-5 evi','2','');</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="25.5">
+    <row r="704" spans="1:7" ht="38.25">
       <c r="A704" s="60">
         <v>703</v>
       </c>
@@ -44697,7 +44697,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('703','q_902_a', '3.MANY (MORE THAN 5) TIMES','3.A‡bKevi/5 ev‡ii †ekx','3','');</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="25.5">
+    <row r="705" spans="1:7" ht="38.25">
       <c r="A705" s="60">
         <v>704</v>
       </c>
@@ -44718,7 +44718,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('704','q_902_a', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="25.5">
+    <row r="706" spans="1:7" ht="38.25">
       <c r="A706" s="60">
         <v>705</v>
       </c>
@@ -44781,7 +44781,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('707','q_902_b', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="25.5">
+    <row r="709" spans="1:7" ht="38.25">
       <c r="A709" s="60">
         <v>708</v>
       </c>
@@ -44802,7 +44802,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('708','q_902_b', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="25.5">
+    <row r="710" spans="1:7" ht="38.25">
       <c r="A710" s="60">
         <v>709</v>
       </c>
@@ -44823,7 +44823,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('709','q_902_b', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="25.5">
+    <row r="711" spans="1:7" ht="38.25">
       <c r="A711" s="60">
         <v>710</v>
       </c>
@@ -44847,7 +44847,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('710','q_903_10', '10.OTHER (specify)','10.Ab¨vb¨ (wbw`©ó Kiæb) ','0','q_903_0ther');</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="25.5">
+    <row r="712" spans="1:7" ht="38.25">
       <c r="A712" s="60">
         <v>711</v>
       </c>
@@ -44889,7 +44889,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('712','q_903_8', '8.BROKEN TEETH','8.`vuZ fv½v','0','');</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="25.5">
+    <row r="714" spans="1:7" ht="38.25">
       <c r="A714" s="60">
         <v>713</v>
       </c>
@@ -44910,7 +44910,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('713','q_903_7', '7.FRACTURES, BROKEN BONES','7.nvo  dvUv, fv½v','0','');</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="25.5">
+    <row r="715" spans="1:7" ht="38.25">
       <c r="A715" s="60">
         <v>714</v>
       </c>
@@ -44931,7 +44931,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('714','q_903_6', '6.BROKEN EARDRUM, EYE INJURIES','6.Kv‡bi c`©v dvUv, †Pv‡L RLg','0','');</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="30">
+    <row r="716" spans="1:7" ht="38.25">
       <c r="A716" s="60">
         <v>715</v>
       </c>
@@ -44973,7 +44973,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('716','q_903_4', '4.BURNS','4.†cvov','0','');</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="25.5">
+    <row r="718" spans="1:7" ht="38.25">
       <c r="A718" s="60">
         <v>717</v>
       </c>
@@ -44994,7 +44994,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('717','q_903_3', '3.SPRAINS, DISLOCATIONS','3.gPKvb, nv‡oi †Rvov Qz‡U hvIqv','0','');</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="25.5">
+    <row r="719" spans="1:7" ht="38.25">
       <c r="A719" s="60">
         <v>718</v>
       </c>
@@ -45015,7 +45015,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('718','q_903_2', '2.SCRATCH, ABRASION, BRUISES','2.dz‡j hvIqv, wQu‡o hvIqv, Kvjwk‡U cov','0','');</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="25.5">
+    <row r="720" spans="1:7" ht="38.25">
       <c r="A720" s="60">
         <v>719</v>
       </c>
@@ -45141,7 +45141,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('724','q_904', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="25.5">
+    <row r="726" spans="1:7" ht="38.25">
       <c r="A726" s="60">
         <v>725</v>
       </c>
@@ -45162,7 +45162,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('725','q_904', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="25.5">
+    <row r="727" spans="1:7" ht="38.25">
       <c r="A727" s="60">
         <v>726</v>
       </c>
@@ -45207,7 +45207,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('727','q_905_a', '1.YES ','1.nu¨v','1','q_905_a_time');</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="23" customFormat="1" ht="25.5">
+    <row r="729" spans="1:7" s="23" customFormat="1" ht="38.25">
       <c r="A729" s="60">
         <v>728</v>
       </c>
@@ -45228,7 +45228,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('728','q_905_a', '99.REFUSED/NO ANSWER','99.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','99','');</v>
       </c>
     </row>
-    <row r="730" spans="1:7" s="23" customFormat="1" ht="25.5">
+    <row r="730" spans="1:7" s="23" customFormat="1" ht="38.25">
       <c r="A730" s="60">
         <v>729</v>
       </c>
@@ -45294,7 +45294,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('731','q_905_b', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="25.5">
+    <row r="733" spans="1:7" ht="38.25">
       <c r="A733" s="60">
         <v>732</v>
       </c>
@@ -45315,7 +45315,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('732','q_905_b', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="25.5">
+    <row r="734" spans="1:7" ht="38.25">
       <c r="A734" s="60">
         <v>733</v>
       </c>
@@ -45405,7 +45405,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('736','q_907', '1.YES ','1.nu¨v','1','q_907Non');</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="738" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A738" s="60">
         <v>737</v>
       </c>
@@ -45427,7 +45427,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('737','q_907', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="60" customFormat="1" ht="25.5">
+    <row r="739" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A739" s="60">
         <v>738</v>
       </c>
@@ -45491,7 +45491,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('740','q_908', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="25.5">
+    <row r="742" spans="1:7" ht="38.25">
       <c r="A742" s="60">
         <v>741</v>
       </c>
@@ -45512,7 +45512,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('741','q_908', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="25.5">
+    <row r="743" spans="1:7" ht="38.25">
       <c r="A743" s="60">
         <v>742</v>
       </c>
@@ -45533,7 +45533,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('742','q_908', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="25.5">
+    <row r="744" spans="1:7" ht="38.25">
       <c r="A744" s="60">
         <v>743</v>
       </c>
@@ -45554,7 +45554,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('743','q_1001_1', '1.NO PARTICULAR REASON','1.†Kv‡bv we‡kl KviY QvovB','1','');</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="25.5">
+    <row r="745" spans="1:7" ht="38.25">
       <c r="A745" s="60">
         <v>744</v>
       </c>
@@ -45575,7 +45575,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('744','q_1001_2', '2.WHEN MAN DRUNK','2.gvZvj Ae¯’vq','1','');</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="25.5">
+    <row r="746" spans="1:7" ht="38.25">
       <c r="A746" s="60">
         <v>745</v>
       </c>
@@ -45596,7 +45596,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('745','q_1001_3', '3.MONEY PROBLEMS','3.UvKv cqmvi mgm¨v n‡j','1','');</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="25.5">
+    <row r="747" spans="1:7" ht="38.25">
       <c r="A747" s="60">
         <v>746</v>
       </c>
@@ -45617,7 +45617,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('746','q_1001_4', '4.DIFFICULTIES AT HIS WORK','4.Kv‡Ri mgm¨v n‡j','1','');</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="25.5">
+    <row r="748" spans="1:7" ht="38.25">
       <c r="A748" s="60">
         <v>747</v>
       </c>
@@ -45638,7 +45638,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('747','q_1001_5', '5.WHEN HE IS UNEMPLOYED','5.†eKvi Ae¯’vq','1','');</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="25.5">
+    <row r="749" spans="1:7" ht="38.25">
       <c r="A749" s="60">
         <v>748</v>
       </c>
@@ -45659,7 +45659,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('748','q_1001_6', '6.NO FOOD AT HOME','6.evox‡Z Lvevi bv _vK‡j','1','');</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="30">
+    <row r="750" spans="1:7" ht="38.25">
       <c r="A750" s="60">
         <v>749</v>
       </c>
@@ -45680,7 +45680,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('749','q_1001_7', '7.PROBLEMS WITH HIS OR HER FAMILY','7.¯^vgxi  ev Avgvi cwiev‡ii m‡½ †Mvjgvj n‡j','1','');</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="25.5">
+    <row r="751" spans="1:7" ht="38.25">
       <c r="A751" s="60">
         <v>750</v>
       </c>
@@ -45701,7 +45701,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('750','q_1001_8', '8.SHE IS PREGNANT','8.Avgvi †c‡U ev”Pv _vKv Kv‡j','1','');</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="25.5">
+    <row r="752" spans="1:7" ht="38.25">
       <c r="A752" s="60">
         <v>751</v>
       </c>
@@ -45722,7 +45722,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('751','q_1001_9', '9.HE IS JEALOUS OF HER','9.Cl©v †eva K‡i','1','');</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="25.5">
+    <row r="753" spans="1:7" ht="38.25">
       <c r="A753" s="60">
         <v>752</v>
       </c>
@@ -45743,7 +45743,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('752','q_1001_10', '10.SHE REFUSES SEX','10.kvixwiK †gjv‡gkv/ mnev‡m ivRx bv n‡j','1','');</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="25.5">
+    <row r="754" spans="1:7" ht="38.25">
       <c r="A754" s="60">
         <v>753</v>
       </c>
@@ -45764,7 +45764,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('753','q_1001_11', '11.SHE IS DISOBEDIENT','11.K_vi Aeva¨ n‡j','1','');</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="25.5">
+    <row r="755" spans="1:7" ht="38.25">
       <c r="A755" s="60">
         <v>754</v>
       </c>
@@ -45785,7 +45785,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('754','q_1001_12', '12.FOR DOWRY','12.‡hŠZz‡Ki Kvi‡b','1','');</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="30">
+    <row r="756" spans="1:7" ht="38.25">
       <c r="A756" s="60">
         <v>755</v>
       </c>
@@ -45872,7 +45872,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('758','q_1002', '3.SEVERAL TIMES','3.K‡qKevi','3','');</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="25.5">
+    <row r="760" spans="1:7" ht="38.25">
       <c r="A760" s="60">
         <v>759</v>
       </c>
@@ -45893,7 +45893,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('759','q_1002', '4.MANY TIMES/MOST OF THE TIME','4.A‡bKevi/‡ekxifvM mgq','4','');</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="25.5">
+    <row r="761" spans="1:7" ht="38.25">
       <c r="A761" s="60">
         <v>760</v>
       </c>
@@ -45914,7 +45914,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('760','q_1002', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="25.5">
+    <row r="762" spans="1:7" ht="38.25">
       <c r="A762" s="60">
         <v>761</v>
       </c>
@@ -46001,7 +46001,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('764','q_1003', '3.SEVERAL TIMES','3.K‡qKevi','3','');</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="25.5">
+    <row r="766" spans="1:7" ht="38.25">
       <c r="A766" s="60">
         <v>765</v>
       </c>
@@ -46022,7 +46022,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('765','q_1003', '4.MANY TIMES/MOST OF THE TIME','4.A‡bKevi/‡ekxifvM mgq','4','');</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="25.5">
+    <row r="767" spans="1:7" ht="38.25">
       <c r="A767" s="60">
         <v>766</v>
       </c>
@@ -46043,7 +46043,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('766','q_1003', '8.DON’T KNOW/DON’T REMEMBER','8.Rvbv †bB/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="25.5">
+    <row r="768" spans="1:7" ht="38.25">
       <c r="A768" s="60">
         <v>767</v>
       </c>
@@ -46064,7 +46064,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('767','q_1003', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="25.5">
+    <row r="769" spans="1:7" ht="38.25">
       <c r="A769" s="60">
         <v>768</v>
       </c>
@@ -46085,7 +46085,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('768','q_1004', '1.NO CHANGE/NO EFFECT','1.wKQzB nqwb','1','');</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="25.5">
+    <row r="770" spans="1:7" ht="38.25">
       <c r="A770" s="60">
         <v>769</v>
       </c>
@@ -46106,7 +46106,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('769','q_1004', '2.VIOLENCE BECAME WORSE','2.wbh©vZb †e‡o wM‡qwQj','2','');</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="25.5">
+    <row r="771" spans="1:7" ht="38.25">
       <c r="A771" s="60">
         <v>770</v>
       </c>
@@ -46127,7 +46127,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('770','q_1004', '3.VIOLENCE BECAME LESS','3.wbh©vZb K‡g wM‡qwQj','3','');</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="25.5">
+    <row r="772" spans="1:7" ht="38.25">
       <c r="A772" s="60">
         <v>771</v>
       </c>
@@ -46148,7 +46148,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('771','q_1004', '4.VIOLENCE STOPPED','4.wbh©vZb eÜ n‡qwQ‡jv','4','');</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="30">
+    <row r="773" spans="1:7" ht="38.25">
       <c r="A773" s="60">
         <v>772</v>
       </c>
@@ -46172,7 +46172,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('772','q_1004', '5.OTHERS (SPECIFY)','5.Ab¨vb¨ (wbw`©ó Kiæb) ','5','q_1004_other');</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="25.5">
+    <row r="774" spans="1:7" ht="38.25">
       <c r="A774" s="60">
         <v>773</v>
       </c>
@@ -46256,7 +46256,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('776','q_1005', '3.A LOT','3.A‡bK','3','');</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="25.5">
+    <row r="778" spans="1:7" ht="38.25">
       <c r="A778" s="60">
         <v>777</v>
       </c>
@@ -46277,7 +46277,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('777','q_1005', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="25.5">
+    <row r="779" spans="1:7" ht="38.25">
       <c r="A779" s="60">
         <v>778</v>
       </c>
@@ -46298,7 +46298,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('778','q_1005', '9.REFUSED/NO ANSWER','9.cÖZ¨vL¨vb/ DËi †bB','9','');</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="25.5">
+    <row r="780" spans="1:7" ht="38.25">
       <c r="A780" s="60">
         <v>779</v>
       </c>
@@ -46319,7 +46319,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('779','q_1006_1', '1.N/A (NO WORK FOR MONEY)','1.cÖ‡hvR¨ bq/ KvR K‡ib bv','1','');</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="25.5">
+    <row r="781" spans="1:7" ht="38.25">
       <c r="A781" s="60">
         <v>780</v>
       </c>
@@ -46340,7 +46340,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('780','q_1006_2', '2.WORK NOT DISRUPTED','2.mgm¨v K‡iwb','1','');</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="25.5">
+    <row r="782" spans="1:7" ht="38.25">
       <c r="A782" s="60">
         <v>781</v>
       </c>
@@ -46361,7 +46361,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('781','q_1006_3', '3.PARTNER INTERRUPTED WORK','3.¯^vgx Kv‡R evav w`‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="25.5">
+    <row r="783" spans="1:7" ht="38.25">
       <c r="A783" s="60">
         <v>782</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('782','q_1006_4', '4.UNABLE TO CONCENTRATE','4.g‡bv‡hv‡Mi Afve n‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="31.5">
+    <row r="784" spans="1:7" ht="51">
       <c r="A784" s="60">
         <v>783</v>
       </c>
@@ -46403,7 +46403,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('783','q_1006_5', '5.UNABLE TO WORK/SICK LEAVE','5.kixi Lvivc _vKvi Rb¨ KvR Ki‡Z cv‡ibwb/QywU wb‡Z n‡q‡Q','1','');</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="30">
+    <row r="785" spans="1:7" ht="38.25">
       <c r="A785" s="60">
         <v>784</v>
       </c>
@@ -46424,7 +46424,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('784','q_1006_6', '6.LOST CONFIDENCE IN OWN ABILITY','6.wb‡Ri Dci wek¦vm nvwi‡q‡Qb','1','');</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="30">
+    <row r="786" spans="1:7" ht="38.25">
       <c r="A786" s="60">
         <v>785</v>
       </c>
@@ -46511,7 +46511,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('788','q_1007_3', '3.PARENTS','3.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="25.5">
+    <row r="790" spans="1:7" ht="38.25">
       <c r="A790" s="60">
         <v>789</v>
       </c>
@@ -46532,7 +46532,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('789','q_1007_4', '4.BROTHER OR SISTER','4.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="25.5">
+    <row r="791" spans="1:7" ht="38.25">
       <c r="A791" s="60">
         <v>790</v>
       </c>
@@ -46553,7 +46553,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('790','q_1007_5', '5.UNCLE OR AUNT','5.PvPv-PvPx/gvgv-gvgx/dzcv-dzcy/Lvjv-Lvjy','1','');</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="25.5">
+    <row r="792" spans="1:7" ht="38.25">
       <c r="A792" s="60">
         <v>791</v>
       </c>
@@ -46637,7 +46637,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('794','q_1007_9', '9.POLICE','9.cywjk','1','');</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="25.5">
+    <row r="796" spans="1:7" ht="38.25">
       <c r="A796" s="60">
         <v>795</v>
       </c>
@@ -46658,7 +46658,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('795','q_1007_10', '10.DOCTOR/HEALTH WORKER','10.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="25.5">
+    <row r="797" spans="1:7" ht="38.25">
       <c r="A797" s="60">
         <v>796</v>
       </c>
@@ -46679,7 +46679,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('796','q_1007_11', '11.PRIEST/RELIGIOUS LEADER','11.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="25.5">
+    <row r="798" spans="1:7" ht="38.25">
       <c r="A798" s="60">
         <v>797</v>
       </c>
@@ -46700,7 +46700,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('797','q_1007_12', '12.NGO/WOMEN’S ORGANIZATION','12.Gb. wR. I / gwnjv ms¯’v','1','');</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="25.5">
+    <row r="799" spans="1:7" ht="38.25">
       <c r="A799" s="60">
         <v>798</v>
       </c>
@@ -46721,7 +46721,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('798','q_1007_13', '13.LOCAL LEADER','13.¯’vbxq †bZv','1','');</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="30">
+    <row r="800" spans="1:7" ht="38.25">
       <c r="A800" s="60">
         <v>799</v>
       </c>
@@ -46808,7 +46808,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('802','q_1008_3', '3.PARENTS','3.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="25.5">
+    <row r="804" spans="1:7" ht="38.25">
       <c r="A804" s="60">
         <v>803</v>
       </c>
@@ -46829,7 +46829,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('803','q_1008_4', '4.BROTHER OR SISTER','4.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="25.5">
+    <row r="805" spans="1:7" ht="38.25">
       <c r="A805" s="60">
         <v>804</v>
       </c>
@@ -46850,7 +46850,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('804','q_1008_5', '5.UNCLE OR AUNT','5.PvPv-PvPx/gvgv-gvgx/dzcv-dzcy/Lvjv-Lvjy','1','');</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="25.5">
+    <row r="806" spans="1:7" ht="38.25">
       <c r="A806" s="60">
         <v>805</v>
       </c>
@@ -46934,7 +46934,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('808','q_1008_9', '9.POLICE','9.cywjk','1','');</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="25.5">
+    <row r="810" spans="1:7" ht="38.25">
       <c r="A810" s="60">
         <v>809</v>
       </c>
@@ -46955,7 +46955,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('809','q_1008_10', '10.DOCTOR/HEALTH WORKER','10.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="25.5">
+    <row r="811" spans="1:7" ht="38.25">
       <c r="A811" s="60">
         <v>810</v>
       </c>
@@ -46976,7 +46976,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('810','q_1008_11', '11.PRIEST/RELIGIOUS LEADER','11.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="25.5">
+    <row r="812" spans="1:7" ht="38.25">
       <c r="A812" s="60">
         <v>811</v>
       </c>
@@ -46997,7 +46997,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('811','q_1008_12', '12.NGO/WOMEN’S ORGANIZATION','12.Gb. wR. I / gwnjv ms¯’v','1','');</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="25.5">
+    <row r="813" spans="1:7" ht="38.25">
       <c r="A813" s="60">
         <v>812</v>
       </c>
@@ -47018,7 +47018,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('812','q_1008_13', '13.LOCAL LEADER','13.¯’vbxq †bZv','1','');</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="30">
+    <row r="814" spans="1:7" ht="38.25">
       <c r="A814" s="60">
         <v>813</v>
       </c>
@@ -47937,7 +47937,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('853','q_1009_x_sat', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="25.5">
+    <row r="855" spans="1:7" ht="38.25">
       <c r="A855" s="60">
         <v>854</v>
       </c>
@@ -47959,7 +47959,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('854','q_1010_1', '1.ENCOURAGED BY FRIENDS/FAMILY','1.eÜzz-evÜe/cwievi Drmvn †`qvq','1','');</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="25.5">
+    <row r="856" spans="1:7" ht="38.25">
       <c r="A856" s="60">
         <v>855</v>
       </c>
@@ -47981,7 +47981,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('855','q_1010_2', '2.COULD NOT ENDURE MORE','2.Avi mn¨ Kiv hvw”Qj bv','1','');</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="25.5">
+    <row r="857" spans="1:7" ht="38.25">
       <c r="A857" s="60">
         <v>856</v>
       </c>
@@ -48002,7 +48002,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('856','q_1010_3', '3.BADLY INJURED','3.gvivZ¥Kfv‡e AvnZ nIqvq','1','');</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="30">
+    <row r="858" spans="1:7" ht="38.25">
       <c r="A858" s="60">
         <v>857</v>
       </c>
@@ -48023,7 +48023,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('857','q_1010_4', '4.HE THREATENED OR TRIED TO KILL HER','4.¯^vgx Ly‡bi ûgwK w`‡q‡Q ev Lyb Kivi †Póv K‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="25.5">
+    <row r="859" spans="1:7" ht="38.25">
       <c r="A859" s="60">
         <v>858</v>
       </c>
@@ -48044,7 +48044,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('858','q_1010_5', '5.HE THREATENED OR HIT CHILDREN','5.¯^vgx ev”Pv‡`i gvievi ûgwK w`‡q‡Q ev †g‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="25.5">
+    <row r="860" spans="1:7" ht="38.25">
       <c r="A860" s="60">
         <v>859</v>
       </c>
@@ -48065,7 +48065,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('859','q_1010_6', '6.SAW THAT CHILDREN SUFFERING','6.ev”Pv‡`i Kó †`‡L','1','');</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="25.5">
+    <row r="861" spans="1:7" ht="38.25">
       <c r="A861" s="60">
         <v>860</v>
       </c>
@@ -48086,7 +48086,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('860','q_1010_7', '7.THROWN OUT OF THE HOME','7.evox †_‡K Zvwo‡q †`Iqvq','1','');</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="25.5">
+    <row r="862" spans="1:7" ht="38.25">
       <c r="A862" s="60">
         <v>861</v>
       </c>
@@ -48107,7 +48107,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('861','q_1010_8', '8.AFRAID SHE WOULD KILL HIM','8.¯^vgx‡K Lyb K‡i †dj‡Z cv‡ib GB f‡q','1','');</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="30">
+    <row r="863" spans="1:7" ht="38.25">
       <c r="A863" s="60">
         <v>862</v>
       </c>
@@ -48131,7 +48131,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('862','q_1010_9', '9. OTHER(specify)','9.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1010_other');</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="25.5">
+    <row r="864" spans="1:7" ht="38.25">
       <c r="A864" s="60">
         <v>863</v>
       </c>
@@ -48173,7 +48173,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('864','q_1011_2', '2.FEAR OF THREATS/CONSEQUENCES/MORE VIOLENCE','2.ûgwKi f‡q, Ab¨vb¨ ¶wZi K_v †f‡e,AZ¨vPvi †e‡o hvIqvi f‡q','1','');</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="25.5">
+    <row r="866" spans="1:7" ht="38.25">
       <c r="A866" s="60">
         <v>865</v>
       </c>
@@ -48194,7 +48194,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('865','q_1011_3', '3.VIOLENCE NORMAL/NOT SERIOUS ','3.G ai‡bi wbh©vZb †Zv ¯^vfvweK/GUv ¸iæZi bq','1','');</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="31.5">
+    <row r="867" spans="1:7" ht="38.25">
       <c r="A867" s="60">
         <v>866</v>
       </c>
@@ -48215,7 +48215,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('866','q_1011_4', '4.BELIEVED OR WOULD BE BLAMED','4.j¾vq/f‡q †h †KD wek¦vm Ki‡e bv ev †`vlv‡ivc Ki‡e','1','');</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="31.5">
+    <row r="868" spans="1:7" ht="51">
       <c r="A868" s="60">
         <v>867</v>
       </c>
@@ -48236,7 +48236,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('867','q_1011_5', '5.BELIEVED NOT HELP/KNOW OTHER WOMEN NOT HELPED','5.‡Kvb jvf n‡e bv †f‡e/Ab¨ gwnjviv ‡Kvb DcKvi cvq bvB †`‡L','1','');</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="30">
+    <row r="869" spans="1:7" ht="38.25">
       <c r="A869" s="60">
         <v>868</v>
       </c>
@@ -48257,7 +48257,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('868','q_1011_6', '6.AFRAID WOULD END RELATIONSHIP','6.m¤úK© †kl n‡q hv‡e  GB f‡q','1','');</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="25.5">
+    <row r="870" spans="1:7" ht="38.25">
       <c r="A870" s="60">
         <v>869</v>
       </c>
@@ -48278,7 +48278,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('869','q_1011_7', '7.AFRAID WOULD LOSE CHILDREN','7.ev”Pv nvivevi f‡q','1','');</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="25.5">
+    <row r="871" spans="1:7" ht="38.25">
       <c r="A871" s="60">
         <v>870</v>
       </c>
@@ -48299,7 +48299,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('870','q_1011_8', '8.BRING BAD NAME TO FAMILY','8.cwiev‡ii e`bv‡gi f‡q','1','');</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="30">
+    <row r="872" spans="1:7" ht="38.25">
       <c r="A872" s="60">
         <v>871</v>
       </c>
@@ -48323,7 +48323,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('871','q_1011_9', '9. Any other problems, specify.','9.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1011_other');</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="25.5">
+    <row r="873" spans="1:7" ht="38.25">
       <c r="A873" s="60">
         <v>872</v>
       </c>
@@ -48365,7 +48365,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('873','q_1012_2', '2.FAMILY','2.cwievi','1','');</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="25.5">
+    <row r="875" spans="1:7" ht="38.25">
       <c r="A875" s="60">
         <v>874</v>
       </c>
@@ -48386,7 +48386,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('874','q_1012_3', '3.HER MOTHER','3.wb‡Ri gv†qi KvQ †_‡K','1','');</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="25.5">
+    <row r="876" spans="1:7" ht="38.25">
       <c r="A876" s="60">
         <v>875</v>
       </c>
@@ -48407,7 +48407,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('875','q_1012_4', '4.HIS MOTHER','4.¯^vgxi gv‡qi KvQ †_‡K','1','');</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="25.5">
+    <row r="877" spans="1:7" ht="38.25">
       <c r="A877" s="60">
         <v>876</v>
       </c>
@@ -48449,7 +48449,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('877','q_1012_6', '6.POLICE','6.cywjk','1','');</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="25.5">
+    <row r="879" spans="1:7" ht="38.25">
       <c r="A879" s="60">
         <v>878</v>
       </c>
@@ -48491,7 +48491,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('879','q_1012_8', '8.NGO','8.Gb.wR.I','1','');</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="30">
+    <row r="881" spans="1:7" ht="38.25">
       <c r="A881" s="60">
         <v>880</v>
       </c>
@@ -48587,7 +48587,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('883','q_1013', '97.N/A','97.cÖ‡hvR¨ bq','97','msg1101');</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="25.5">
+    <row r="885" spans="1:7" ht="38.25">
       <c r="A885" s="60">
         <v>884</v>
       </c>
@@ -48609,7 +48609,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('884','q_1014_1', '1.ENCOURAGED BY FRIENDS/FAMILY','1.eÜzz-evÜe/cwievi Drmvn †`qvq','1','');</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="25.5">
+    <row r="886" spans="1:7" ht="38.25">
       <c r="A886" s="60">
         <v>885</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('885','q_1014_2', '2.COULD NOT ENDURE MORE','2.Avi mn¨ Kiv hvw”Qj bv','1','');</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="25.5">
+    <row r="887" spans="1:7" ht="38.25">
       <c r="A887" s="60">
         <v>886</v>
       </c>
@@ -48653,7 +48653,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('886','q_1014_3', '3.BADLY INJURED','3.gvivZ¥Kfv‡e AvnZ nIqvq','1','');</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="30">
+    <row r="888" spans="1:7" ht="38.25">
       <c r="A888" s="60">
         <v>887</v>
       </c>
@@ -48675,7 +48675,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('887','q_1014_4', '4.HE THREATENED OR TRIED TO KILL HER','4.¯^vgx Ly‡bi ûgwK w`‡q‡Q ev Lyb Kivi †Póv K‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="25.5">
+    <row r="889" spans="1:7" ht="38.25">
       <c r="A889" s="60">
         <v>888</v>
       </c>
@@ -48697,7 +48697,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('888','q_1014_5', '5.HE THREATENED OR HIT CHILDREN','5.¯^vgx ev”Pv‡`i gvievi ûgwK w`‡q‡Q ev †g‡i‡Q','1','');</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="25.5">
+    <row r="890" spans="1:7" ht="38.25">
       <c r="A890" s="60">
         <v>889</v>
       </c>
@@ -48719,7 +48719,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('889','q_1014_6', '6.SAW THAT CHILDREN SUFFERING','6.ev”Pv‡`i Kó †`‡L','1','');</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="25.5">
+    <row r="891" spans="1:7" ht="38.25">
       <c r="A891" s="60">
         <v>890</v>
       </c>
@@ -48741,7 +48741,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('890','q_1014_7', '7.THROWN OUT OF THE HOME','7.evox †_‡K Zvwo‡q †`Iqvq','1','');</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="25.5">
+    <row r="892" spans="1:7" ht="38.25">
       <c r="A892" s="60">
         <v>891</v>
       </c>
@@ -48763,7 +48763,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('891','q_1014_8', '8.AFRAID SHE WOULD KILL HIM','8.¯^vgx‡K Lyb K‡i †dj‡Z cv‡ib GB f‡q','1','');</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="30">
+    <row r="893" spans="1:7" ht="38.25">
       <c r="A893" s="60">
         <v>892</v>
       </c>
@@ -48787,7 +48787,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('892','q_1014_9', '9. OTHER(specify)','9.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1014_other');</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="25.5">
+    <row r="894" spans="1:7" ht="38.25">
       <c r="A894" s="60">
         <v>893</v>
       </c>
@@ -48808,7 +48808,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('893','q_1015', '1.HER RELATIVES','1.wb‡Ri AvZ¥xq-¯^R‡bi Kv‡Q','1','');</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="25.5">
+    <row r="895" spans="1:7" ht="38.25">
       <c r="A895" s="60">
         <v>894</v>
       </c>
@@ -48829,7 +48829,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('894','q_1015', '2.HIS RELATIVES','2.¯^vgxi AvZ¥xq-¯^R‡bi Kv‡Q','2','');</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="25.5">
+    <row r="896" spans="1:7" ht="38.25">
       <c r="A896" s="60">
         <v>895</v>
       </c>
@@ -48850,7 +48850,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('895','q_1015', '3.HER FRIENDS/NEIGHBOURS','3.Avcbvi eÜz-evÜe/cvov cokxi Kv‡Q','3','');</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="25.5">
+    <row r="897" spans="1:7" ht="38.25">
       <c r="A897" s="60">
         <v>896</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('897','q_1015', '5.STREET','5.iv¯Ívq','5','');</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="25.5">
+    <row r="899" spans="1:7" ht="38.25">
       <c r="A899" s="60">
         <v>898</v>
       </c>
@@ -48934,7 +48934,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('899','q_1015', '7.SHELTER','7.Avkªq †K‡›`ª/m`‡b','7','');</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="30">
+    <row r="901" spans="1:7" ht="38.25">
       <c r="A901" s="60">
         <v>900</v>
       </c>
@@ -48958,7 +48958,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('900','q_1015', '9. OTHER(specify)','9.Ab¨vb¨ (D‡jøL Kiæb)','96','q_1015_other');</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="25.5">
+    <row r="902" spans="1:7" ht="38.25">
       <c r="A902" s="60">
         <v>901</v>
       </c>
@@ -48982,7 +48982,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('901','q_1016', '1.NUMBER OF DAYS ','1.w`‡bi msL¨v ','1','q_1016_day');</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="30">
+    <row r="903" spans="1:7" ht="38.25">
       <c r="A903" s="60">
         <v>902</v>
       </c>
@@ -49006,7 +49006,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('902','q_1016', '2.NUMBER OF MONTHS ','2.gv‡mi msL¨v','2','q_1016_month');</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="30">
+    <row r="904" spans="1:7" ht="38.25">
       <c r="A904" s="60">
         <v>903</v>
       </c>
@@ -49030,7 +49030,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('903','q_1016', '3.LEFT PARTNER/DID NOT RETURN/NOT WITH PARTNER ','3.‡dir Av‡mbwb','3','msg1101');</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="25.5">
+    <row r="905" spans="1:7" ht="38.25">
       <c r="A905" s="60">
         <v>904</v>
       </c>
@@ -49051,7 +49051,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('904','q_1017_1', '1.DIDN’T WANT TO LEAVE CHILDREN','1.ev”Pv‡`i †Q‡o _vK‡Z Pvbwb','1','');</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="25.5">
+    <row r="906" spans="1:7" ht="38.25">
       <c r="A906" s="60">
         <v>905</v>
       </c>
@@ -49072,7 +49072,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('905','q_1017_2', '2.SANCTITY OF MARRIAGE','2.we‡q cweÎ eÜb','1','');</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="30">
+    <row r="907" spans="1:7" ht="38.25">
       <c r="A907" s="60">
         <v>906</v>
       </c>
@@ -49093,7 +49093,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('906','q_1017_3', '3.FOR SAKE OF FAMILY/CHILDREN (FAMILY HONOUR)','3.msmvi i¶vi Rb¨','1','');</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="25.5">
+    <row r="908" spans="1:7" ht="38.25">
       <c r="A908" s="60">
         <v>907</v>
       </c>
@@ -49114,7 +49114,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('907','q_1017_4', '4.COULDN’T SUPPORT CHILDREN','4.ev”Pv‡`i jvjb cvjb Ki‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="25.5">
+    <row r="909" spans="1:7" ht="38.25">
       <c r="A909" s="60">
         <v>908</v>
       </c>
@@ -49135,7 +49135,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('908','q_1017_5', '5.LOVED HIM','5.¯^vgx‡K fvjev‡mb','1','');</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="25.5">
+    <row r="910" spans="1:7" ht="38.25">
       <c r="A910" s="60">
         <v>909</v>
       </c>
@@ -49156,7 +49156,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('909','q_1017_6', '6.HE ASKED HER TO GO BACK','6.¯^vgx †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="25.5">
+    <row r="911" spans="1:7" ht="38.25">
       <c r="A911" s="60">
         <v>910</v>
       </c>
@@ -49177,7 +49177,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('910','q_1017_7', '7.FAMILY SAID TO RETURN','7.cwievi †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="25.5">
+    <row r="912" spans="1:7" ht="38.25">
       <c r="A912" s="60">
         <v>911</v>
       </c>
@@ -49198,7 +49198,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('911','q_1017_8', '8.FORGAVE HIM','8.¯^vgx‡K ¶gv K‡i w`‡q‡Qb','1','');</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="25.5">
+    <row r="913" spans="1:7" ht="38.25">
       <c r="A913" s="60">
         <v>912</v>
       </c>
@@ -49219,7 +49219,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('912','q_1017_9', '9.THOUGHT HE WOULD CHANGE','9.¯^vgx e`jv‡e †f‡e','1','');</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="25.5">
+    <row r="914" spans="1:7" ht="38.25">
       <c r="A914" s="60">
         <v>913</v>
       </c>
@@ -49240,7 +49240,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('913','q_1017_10', '10.THREATENED HER/CHILDREN','10.Avcbv‡K ev mšÍvb‡`i ûgwK †`qvq','1','');</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="30">
+    <row r="915" spans="1:7" ht="51">
       <c r="A915" s="60">
         <v>914</v>
       </c>
@@ -49261,7 +49261,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('914','q_1017_11', '11.COULD NOT STAY THERE (WHERE SHE WENT)','11.†hLv‡b wM‡qwQ‡jb †mLv‡b _vK‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="30">
+    <row r="916" spans="1:7" ht="38.25">
       <c r="A916" s="60">
         <v>915</v>
       </c>
@@ -49282,7 +49282,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('915','q_1017_12', '12.VIOLENCE NORMAL/NOT SERIOUS ','12.G ai‡bi wbh©vZb †Zv ¯^vfvweK/GUv ¸iæZi bq','1','');</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="30">
+    <row r="917" spans="1:7" ht="38.25">
       <c r="A917" s="60">
         <v>916</v>
       </c>
@@ -49306,7 +49306,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('916','q_1017_13', '13. OTHER(specify)','13.Ab¨vb¨ (D‡jøL Kiæb)','1','q_1017_other');</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="25.5">
+    <row r="918" spans="1:7" ht="38.25">
       <c r="A918" s="60">
         <v>917</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('917','q_1018_1', '1.DIDN’T WANT TO LEAVE CHILDREN','1.ev”Pv‡`i †Q‡o _vK‡Z Pvbwb','1','');</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="25.5">
+    <row r="919" spans="1:7" ht="38.25">
       <c r="A919" s="60">
         <v>918</v>
       </c>
@@ -49372,7 +49372,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('919','q_1018_3', '3.FOR SAKE OF FAMILY/CHILDREN(FAMILY HONOUR)','3.msmvi i¶vi Rb¨','1','');</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="25.5">
+    <row r="921" spans="1:7" ht="38.25">
       <c r="A921" s="60">
         <v>920</v>
       </c>
@@ -49394,7 +49394,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('920','q_1018_4', '4.COULDN’T SUPPORT CHILDREN','4.ev”Pv‡`i jvjb cvjb Ki‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="25.5">
+    <row r="922" spans="1:7" ht="38.25">
       <c r="A922" s="60">
         <v>921</v>
       </c>
@@ -49416,7 +49416,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('921','q_1018_5', '5.LOVED HIM','5.¯^vgx‡K fvjev‡mb','1','');</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="25.5">
+    <row r="923" spans="1:7" ht="38.25">
       <c r="A923" s="60">
         <v>922</v>
       </c>
@@ -49438,7 +49438,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('922','q_1018_6', '6.HE ASKED HER TO GO BACK','6.¯^vgx †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="25.5">
+    <row r="924" spans="1:7" ht="38.25">
       <c r="A924" s="60">
         <v>923</v>
       </c>
@@ -49460,7 +49460,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('923','q_1018_7', '7.FAMILY SAID TO RETURN','7.cwievi †diZ Avm‡Z e‡j‡Q','1','');</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="25.5">
+    <row r="925" spans="1:7" ht="38.25">
       <c r="A925" s="60">
         <v>924</v>
       </c>
@@ -49482,7 +49482,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('924','q_1018_8', '8.FORGAVE HIM','8.¯^vgx‡K ¶gv K‡i w`‡q‡Qb','1','');</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="25.5">
+    <row r="926" spans="1:7" ht="38.25">
       <c r="A926" s="60">
         <v>925</v>
       </c>
@@ -49504,7 +49504,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('925','q_1018_9', '9.THOUGHT HE WOULD CHANGE','9.¯^vgx e`jv‡e †f‡e','1','');</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="25.5">
+    <row r="927" spans="1:7" ht="38.25">
       <c r="A927" s="60">
         <v>926</v>
       </c>
@@ -49526,7 +49526,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('926','q_1018_10', '10.THREATENED HER/CHILDREN','10.Avcbv‡K ev mšÍvb‡`i ûgwK †`qvq','1','');</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="30">
+    <row r="928" spans="1:7" ht="51">
       <c r="A928" s="60">
         <v>927</v>
       </c>
@@ -49548,7 +49548,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('927','q_1018_11', '11.COULD NOT STAY THERE (WHERE SHE WENT)','11.†hLv‡b wM‡qwQ‡jb †mLv‡b _vK‡Z bv cvivq','1','');</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="30">
+    <row r="929" spans="1:7" ht="38.25">
       <c r="A929" s="60">
         <v>928</v>
       </c>
@@ -49570,7 +49570,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('928','q_1018_12', '12.VIOLENCE NORMAL/NOT SERIOUS ','12.G ai‡bi wbh©vZb †Zv ¯^vfvweK/GUv ¸iæZi bq','1','');</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="30">
+    <row r="930" spans="1:7" ht="38.25">
       <c r="A930" s="60">
         <v>929</v>
       </c>
@@ -50042,7 +50042,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('949','q_1101_d_12', '8.DK','8.Rvwbbv','8','');</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="25.5">
+    <row r="951" spans="1:7" ht="38.25">
       <c r="A951" s="60">
         <v>950</v>
       </c>
@@ -50066,7 +50066,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('950','q_1102_17', '17. OTHER(specify)','17.Ab¨vb¨ (D‡jøL Kiæb)','17','q_1102_other');</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="25.5">
+    <row r="952" spans="1:7" ht="38.25">
       <c r="A952" s="60">
         <v>951</v>
       </c>
@@ -50087,7 +50087,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('951','q_1102_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','16','');</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="25.5">
+    <row r="953" spans="1:7" ht="38.25">
       <c r="A953" s="60">
         <v>952</v>
       </c>
@@ -50108,7 +50108,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('952','q_1102_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','15','');</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="25.5">
+    <row r="954" spans="1:7" ht="38.25">
       <c r="A954" s="60">
         <v>953</v>
       </c>
@@ -50150,7 +50150,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('954','q_1102_13', '13.TEACHER ','13.wk¶K','13','');</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="25.5">
+    <row r="956" spans="1:7" ht="38.25">
       <c r="A956" s="60">
         <v>955</v>
       </c>
@@ -50171,7 +50171,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('955','q_1102_12', '12.COMPLETE STRANGER','12.AcwiwPZ e¨w³','12','');</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="25.5">
+    <row r="957" spans="1:7" ht="38.25">
       <c r="A957" s="60">
         <v>956</v>
       </c>
@@ -50192,7 +50192,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('956','q_1102_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','11','');</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="25.5">
+    <row r="958" spans="1:7" ht="38.25">
       <c r="A958" s="60">
         <v>957</v>
       </c>
@@ -50213,7 +50213,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('957','q_1102_10', '10.FRIENDS ACQUAINTANCE','10.eÜz/evÜex','10','');</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="25.5">
+    <row r="959" spans="1:7" ht="38.25">
       <c r="A959" s="60">
         <v>958</v>
       </c>
@@ -50255,7 +50255,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('959','q_1102_8', '8.NEIGHBOUR','8.cªwZ‡ekx','8','');</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="25.5">
+    <row r="961" spans="1:7" ht="38.25">
       <c r="A961" s="60">
         <v>960</v>
       </c>
@@ -50276,7 +50276,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('960','q_1102_7', '7.FAMILY MALE FREIND ','7.cwiev‡ii cyiæl eÜ','7','');</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="25.5">
+    <row r="962" spans="1:7" ht="38.25">
       <c r="A962" s="60">
         <v>961</v>
       </c>
@@ -50297,7 +50297,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('961','q_1102_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','6','');</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="25.5">
+    <row r="963" spans="1:7" ht="38.25">
       <c r="A963" s="60">
         <v>962</v>
       </c>
@@ -50318,7 +50318,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('962','q_1102_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','5','');</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="25.5">
+    <row r="964" spans="1:7" ht="38.25">
       <c r="A964" s="60">
         <v>963</v>
       </c>
@@ -50339,7 +50339,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('963','q_1102_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','4','');</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="25.5">
+    <row r="965" spans="1:7" ht="38.25">
       <c r="A965" s="60">
         <v>964</v>
       </c>
@@ -50489,7 +50489,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('970','q_1103', '2.NO','2.bv','2','q_1106_a');</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="25.5">
+    <row r="972" spans="1:7" ht="38.25">
       <c r="A972" s="60">
         <v>971</v>
       </c>
@@ -50555,7 +50555,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('973','q_1104', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="25.5">
+    <row r="975" spans="1:7" ht="38.25">
       <c r="A975" s="60">
         <v>974</v>
       </c>
@@ -50618,7 +50618,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('976','q_1105_2', '2.PARENT-IN-LAW ','2.k¦ïi kvïwo','1','');</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="25.5">
+    <row r="978" spans="1:7" ht="38.25">
       <c r="A978" s="60">
         <v>977</v>
       </c>
@@ -50639,7 +50639,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('977','q_1105_3', '3.SIBLINGS(BROTHER OR SISTER)','3.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="25.5">
+    <row r="979" spans="1:7" ht="38.25">
       <c r="A979" s="60">
         <v>978</v>
       </c>
@@ -50660,7 +50660,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('978','q_1105_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','1','');</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="25.5">
+    <row r="980" spans="1:7" ht="38.25">
       <c r="A980" s="60">
         <v>979</v>
       </c>
@@ -50681,7 +50681,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('979','q_1105_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','1','');</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="25.5">
+    <row r="981" spans="1:7" ht="38.25">
       <c r="A981" s="60">
         <v>980</v>
       </c>
@@ -50702,7 +50702,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('980','q_1105_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','1','');</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="25.5">
+    <row r="982" spans="1:7" ht="38.25">
       <c r="A982" s="60">
         <v>981</v>
       </c>
@@ -50744,7 +50744,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('982','q_1105_8', '8.NEIGHBOUR','8.cªwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="25.5">
+    <row r="984" spans="1:7" ht="38.25">
       <c r="A984" s="60">
         <v>983</v>
       </c>
@@ -50765,7 +50765,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('983','q_1105_9', '9.SOMEONE AT WORK','9.Kg©‡¶‡Î ‡KD','1','');</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="25.5">
+    <row r="985" spans="1:7" ht="38.25">
       <c r="A985" s="60">
         <v>984</v>
       </c>
@@ -50786,7 +50786,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('984','q_1105_10', '10.FRIENDS ACQUAINTANCE','10.eÜz','1','');</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="25.5">
+    <row r="986" spans="1:7" ht="38.25">
       <c r="A986" s="60">
         <v>985</v>
       </c>
@@ -50807,7 +50807,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('985','q_1105_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','1','');</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="25.5">
+    <row r="987" spans="1:7" ht="38.25">
       <c r="A987" s="60">
         <v>986</v>
       </c>
@@ -50849,7 +50849,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('987','q_1105_13', '13.TEACHER ','13.wk¶K','1','');</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="25.5">
+    <row r="989" spans="1:7" ht="38.25">
       <c r="A989" s="60">
         <v>988</v>
       </c>
@@ -50870,7 +50870,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('988','q_1105_14', '14.DOCTOR/HEALTH STAFF','14.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="25.5">
+    <row r="990" spans="1:7" ht="38.25">
       <c r="A990" s="60">
         <v>989</v>
       </c>
@@ -50891,7 +50891,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('989','q_1105_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="25.5">
+    <row r="991" spans="1:7" ht="38.25">
       <c r="A991" s="60">
         <v>990</v>
       </c>
@@ -50912,7 +50912,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('990','q_1105_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','1','');</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="30">
+    <row r="992" spans="1:7" ht="38.25">
       <c r="A992" s="60">
         <v>991</v>
       </c>
@@ -51026,7 +51026,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('995','q_1106_a_12', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="25.5">
+    <row r="997" spans="1:7" ht="38.25">
       <c r="A997" s="60">
         <v>996</v>
       </c>
@@ -51138,7 +51138,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1000','q_1106_b_12', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="25.5">
+    <row r="1002" spans="1:7" ht="38.25">
       <c r="A1002" s="60">
         <v>1001</v>
       </c>
@@ -51250,7 +51250,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1005','q_1106_c_12', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="25.5">
+    <row r="1007" spans="1:7" ht="38.25">
       <c r="A1007" s="60">
         <v>1006</v>
       </c>
@@ -51294,7 +51294,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1007','q_1107_1', '1.PARENT','1.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" ht="25.5">
+    <row r="1009" spans="1:7" ht="38.25">
       <c r="A1009" s="60">
         <v>1008</v>
       </c>
@@ -51316,7 +51316,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1008','q_1107_2', '2.PARENT-IN-LAW ','2.k¦ïi kvïwo','1','');</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="25.5">
+    <row r="1010" spans="1:7" ht="38.25">
       <c r="A1010" s="60">
         <v>1009</v>
       </c>
@@ -51338,7 +51338,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1009','q_1107_3', '3.SIBLINGS(BROTHER OR SISTER)','3.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="25.5">
+    <row r="1011" spans="1:7" ht="38.25">
       <c r="A1011" s="60">
         <v>1010</v>
       </c>
@@ -51360,7 +51360,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1010','q_1107_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','1','');</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="25.5">
+    <row r="1012" spans="1:7" ht="38.25">
       <c r="A1012" s="60">
         <v>1011</v>
       </c>
@@ -51382,7 +51382,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1011','q_1107_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','1','');</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="25.5">
+    <row r="1013" spans="1:7" ht="38.25">
       <c r="A1013" s="60">
         <v>1012</v>
       </c>
@@ -51404,7 +51404,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1012','q_1107_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','1','');</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="25.5">
+    <row r="1014" spans="1:7" ht="38.25">
       <c r="A1014" s="60">
         <v>1013</v>
       </c>
@@ -51448,7 +51448,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1014','q_1107_8', '8.NEIGHBOUR','8.cªwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="25.5">
+    <row r="1016" spans="1:7" ht="38.25">
       <c r="A1016" s="60">
         <v>1015</v>
       </c>
@@ -51470,7 +51470,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1015','q_1107_9', '9.SOMEONE AT WORK','9.Kg©‡¶‡Î ‡KD','1','');</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="25.5">
+    <row r="1017" spans="1:7" ht="38.25">
       <c r="A1017" s="60">
         <v>1016</v>
       </c>
@@ -51492,7 +51492,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1016','q_1107_10', '10.FRIENDS ACQUAINTANCE','10.eÜz','1','');</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="25.5">
+    <row r="1018" spans="1:7" ht="38.25">
       <c r="A1018" s="60">
         <v>1017</v>
       </c>
@@ -51514,7 +51514,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1017','q_1107_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','1','');</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="25.5">
+    <row r="1019" spans="1:7" ht="38.25">
       <c r="A1019" s="60">
         <v>1018</v>
       </c>
@@ -51558,7 +51558,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1019','q_1107_13', '13.TEACHER ','13.wk¶K','1','');</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="25.5">
+    <row r="1021" spans="1:7" ht="38.25">
       <c r="A1021" s="60">
         <v>1020</v>
       </c>
@@ -51580,7 +51580,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1020','q_1107_14', '14.DOCTOR/HEALTH STAFF','14.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="25.5">
+    <row r="1022" spans="1:7" ht="38.25">
       <c r="A1022" s="60">
         <v>1021</v>
       </c>
@@ -51602,7 +51602,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1021','q_1107_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="25.5">
+    <row r="1023" spans="1:7" ht="38.25">
       <c r="A1023" s="60">
         <v>1022</v>
       </c>
@@ -51624,7 +51624,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1022','q_1107_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','1','');</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="30">
+    <row r="1024" spans="1:7" ht="38.25">
       <c r="A1024" s="60">
         <v>1023</v>
       </c>
@@ -51690,7 +51690,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1025','q_1108', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="25.5">
+    <row r="1027" spans="1:7" ht="38.25">
       <c r="A1027" s="60">
         <v>1026</v>
       </c>
@@ -51711,7 +51711,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1026','q_1108', '7.N/A NEVER WORKED','7.cÖ‡hvR¨ bq/  KLbI KvR K‡ibwb','7','');</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="25.5">
+    <row r="1028" spans="1:7" ht="38.25">
       <c r="A1028" s="60">
         <v>1027</v>
       </c>
@@ -51774,7 +51774,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1029','q_1109', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="25.5">
+    <row r="1031" spans="1:7" ht="38.25">
       <c r="A1031" s="60">
         <v>1030</v>
       </c>
@@ -51795,7 +51795,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1030','q_1109', '7.N/A NEVER WORKED','7.cÖ‡hvR¨ bq/  KLbI KvR K‡ibwb','7','');</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="25.5">
+    <row r="1032" spans="1:7" ht="38.25">
       <c r="A1032" s="60">
         <v>1031</v>
       </c>
@@ -51858,7 +51858,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1033','q_1110', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="25.5">
+    <row r="1035" spans="1:7" ht="38.25">
       <c r="A1035" s="60">
         <v>1034</v>
       </c>
@@ -51921,7 +51921,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1036','q_1111', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="25.5">
+    <row r="1038" spans="1:7" ht="38.25">
       <c r="A1038" s="60">
         <v>1037</v>
       </c>
@@ -51942,7 +51942,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1037','q_1111', '7.DOES NOT USE CELL PHONE','7.†gvevBj †dvb bvB','7','');</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" ht="25.5">
+    <row r="1039" spans="1:7" ht="38.25">
       <c r="A1039" s="60">
         <v>1038</v>
       </c>
@@ -52030,7 +52030,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1041','q_1113_1', '1.PARENT','1.evev-gv','1','');</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="25.5">
+    <row r="1043" spans="1:7" ht="38.25">
       <c r="A1043" s="60">
         <v>1042</v>
       </c>
@@ -52052,7 +52052,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1042','q_1113_2', '2.PARENT-IN-LAW ','2.k¦ïi kvïwo','1','');</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="25.5">
+    <row r="1044" spans="1:7" ht="38.25">
       <c r="A1044" s="60">
         <v>1043</v>
       </c>
@@ -52074,7 +52074,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1043','q_1113_3', '3.SIBLINGS(BROTHER OR SISTER)','3.fvB-‡evb','1','');</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="25.5">
+    <row r="1045" spans="1:7" ht="38.25">
       <c r="A1045" s="60">
         <v>1044</v>
       </c>
@@ -52096,7 +52096,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1044','q_1113_4', '4.OTHER FAMILY MEMBER','4.cwiev‡ii Ab¨ m`m¨','1','');</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="25.5">
+    <row r="1046" spans="1:7" ht="38.25">
       <c r="A1046" s="60">
         <v>1045</v>
       </c>
@@ -52118,7 +52118,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1045','q_1113_5', '5.COUSIN','5.PvPv‡Zv, gvgv‡Zv, dzdv‡Zv, Lvjv‡Zv fvB','1','');</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="25.5">
+    <row r="1047" spans="1:7" ht="38.25">
       <c r="A1047" s="60">
         <v>1046</v>
       </c>
@@ -52140,7 +52140,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1046','q_1113_6', '6.OTHER RELATIVE','6.Ab¨ AvZ¥xq','1','');</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="25.5">
+    <row r="1048" spans="1:7" ht="38.25">
       <c r="A1048" s="60">
         <v>1047</v>
       </c>
@@ -52184,7 +52184,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1048','q_1113_8', '8.NEIGHBOUR','8.cªwZ‡ekx','1','');</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" ht="25.5">
+    <row r="1050" spans="1:7" ht="38.25">
       <c r="A1050" s="60">
         <v>1049</v>
       </c>
@@ -52206,7 +52206,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1049','q_1113_9', '9.SOMEONE AT WORK','9.Kg©‡¶‡Î ‡KD','1','');</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="25.5">
+    <row r="1051" spans="1:7" ht="38.25">
       <c r="A1051" s="60">
         <v>1050</v>
       </c>
@@ -52228,7 +52228,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1050','q_1113_10', '10.FRIENDS ACQUAINTANCE','10.eÜz','1','');</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="25.5">
+    <row r="1052" spans="1:7" ht="38.25">
       <c r="A1052" s="60">
         <v>1051</v>
       </c>
@@ -52250,7 +52250,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1051','q_1113_11', '11.RECENT ACQUAINTANCE','11.Aí cwiwPZ †KD','1','');</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="25.5">
+    <row r="1053" spans="1:7" ht="38.25">
       <c r="A1053" s="60">
         <v>1052</v>
       </c>
@@ -52294,7 +52294,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1053','q_1113_13', '13.TEACHER ','13.wk¶K','1','');</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="25.5">
+    <row r="1055" spans="1:7" ht="38.25">
       <c r="A1055" s="60">
         <v>1054</v>
       </c>
@@ -52316,7 +52316,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1054','q_1113_14', '14.DOCTOR/HEALTH STAFF','14.Wv³vi/¯^v¯’¨Kgx','1','');</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="25.5">
+    <row r="1056" spans="1:7" ht="38.25">
       <c r="A1056" s="60">
         <v>1055</v>
       </c>
@@ -52338,7 +52338,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1055','q_1113_15', '15.PRIEST/RELIGIOUS LEADER','15.†gŠjex/cy‡ivwnZ','1','');</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="25.5">
+    <row r="1057" spans="1:7" ht="38.25">
       <c r="A1057" s="60">
         <v>1056</v>
       </c>
@@ -52360,7 +52360,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1056','q_1113_16', '16.POLICE/ SOLDIER','16.cywjk/‰mb¨','1','');</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="30">
+    <row r="1058" spans="1:7" ht="38.25">
       <c r="A1058" s="60">
         <v>1057</v>
       </c>
@@ -53693,7 +53693,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1119','q_1119', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="25.5">
+    <row r="1121" spans="1:7" ht="38.25">
       <c r="A1121" s="60">
         <v>1120</v>
       </c>
@@ -53756,7 +53756,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1122','q_1120', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1124" spans="1:7" ht="25.5">
+    <row r="1124" spans="1:7" ht="38.25">
       <c r="A1124" s="60">
         <v>1123</v>
       </c>
@@ -53819,7 +53819,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1125','q_1121', '2.OUTSIDE','2.evB‡i','2','');</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="25.5">
+    <row r="1127" spans="1:7" ht="38.25">
       <c r="A1127" s="60">
         <v>1126</v>
       </c>
@@ -53840,7 +53840,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1126','q_1123', '1.NOT CONCERNED','1.GK`g DwØMœ bv','1','');</v>
       </c>
     </row>
-    <row r="1128" spans="1:7" ht="25.5">
+    <row r="1128" spans="1:7" ht="38.25">
       <c r="A1128" s="60">
         <v>1127</v>
       </c>
@@ -53861,7 +53861,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1127','q_1123', '2.A LITTLE CONCERNED','2.wKQzUv DwØMœ','2','');</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="25.5">
+    <row r="1129" spans="1:7" ht="38.25">
       <c r="A1129" s="60">
         <v>1128</v>
       </c>
@@ -53882,7 +53882,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1128','q_1123', '3.VERY CONCERNED','3.A‡bK †ekx DwØMœ','3','');</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="25.5">
+    <row r="1130" spans="1:7" ht="38.25">
       <c r="A1130" s="60">
         <v>1129</v>
       </c>
@@ -53903,7 +53903,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1129','q_1123', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="25.5">
+    <row r="1131" spans="1:7" ht="38.25">
       <c r="A1131" s="60">
         <v>1130</v>
       </c>
@@ -53924,7 +53924,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1130','q_1123', '9.REFUSED/NO ANSWER ','9.evwZj/ DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="25.5">
+    <row r="1132" spans="1:7" ht="38.25">
       <c r="A1132" s="60">
         <v>1131</v>
       </c>
@@ -53945,7 +53945,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1131','q_1125', '1.WANTED TO HAVE SEX ','1.c~Y© m¤§wZ wQj','1','');</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="25.5">
+    <row r="1133" spans="1:7" ht="38.25">
       <c r="A1133" s="60">
         <v>1132</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1132','q_1125', '2.NOT WANT BUT HAD SEX','2.bv PvB‡ZI N‡U‡Q','2','');</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="25.5">
+    <row r="1134" spans="1:7" ht="38.25">
       <c r="A1134" s="60">
         <v>1133</v>
       </c>
@@ -53987,7 +53987,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1133','q_1125', '3.FORCED TO HAVE  SEX','3.†Rvic~e©K','3','');</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="25.5">
+    <row r="1135" spans="1:7" ht="38.25">
       <c r="A1135" s="60">
         <v>1134</v>
       </c>
@@ -54053,7 +54053,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1136','q_1126', '2.NO','2.bv','2','q_1128');</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="25.5">
+    <row r="1138" spans="1:7" ht="38.25">
       <c r="A1138" s="60">
         <v>1137</v>
       </c>
@@ -54077,7 +54077,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1137','q_1126', '3.PARENTS DID NOT LIVE TOGETHER','3.wcZvgvZv GKmv‡_ evm Ki‡Zb bv','3','q_1128');</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="25.5">
+    <row r="1139" spans="1:7" ht="38.25">
       <c r="A1139" s="60">
         <v>1138</v>
       </c>
@@ -54101,7 +54101,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1138','q_1126', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','q_1128');</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="25.5">
+    <row r="1140" spans="1:7" ht="38.25">
       <c r="A1140" s="60">
         <v>1139</v>
       </c>
@@ -54212,7 +54212,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1143','q_1128', '2.NO','2.bv','2','q_1130');</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" ht="25.5">
+    <row r="1145" spans="1:7" ht="38.25">
       <c r="A1145" s="60">
         <v>1144</v>
       </c>
@@ -54236,7 +54236,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1144','q_1128', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','q_1130');</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="25.5">
+    <row r="1146" spans="1:7" ht="38.25">
       <c r="A1146" s="60">
         <v>1145</v>
       </c>
@@ -54302,7 +54302,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1147','q_1129', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" ht="25.5">
+    <row r="1149" spans="1:7" ht="38.25">
       <c r="A1149" s="60">
         <v>1148</v>
       </c>
@@ -54323,7 +54323,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1148','q_1129', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="25.5">
+    <row r="1150" spans="1:7" ht="38.25">
       <c r="A1150" s="60">
         <v>1149</v>
       </c>
@@ -54386,7 +54386,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1151','q_1130', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" ht="25.5">
+    <row r="1153" spans="1:7" ht="38.25">
       <c r="A1153" s="60">
         <v>1152</v>
       </c>
@@ -54407,7 +54407,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1152','q_1130', '8.DON’T KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="25.5">
+    <row r="1154" spans="1:7" ht="38.25">
       <c r="A1154" s="60">
         <v>1153</v>
       </c>
@@ -54452,7 +54452,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1154','q_1201', '0.NO','0.bv','0','q_1203');</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="25.5">
+    <row r="1156" spans="1:7" ht="38.25">
       <c r="A1156" s="60">
         <v>1155</v>
       </c>
@@ -54476,7 +54476,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1155','q_1201', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1203');</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="25.5">
+    <row r="1157" spans="1:7" ht="38.25">
       <c r="A1157" s="60">
         <v>1156</v>
       </c>
@@ -54497,7 +54497,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1156','q_1201', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="25.5">
+    <row r="1158" spans="1:7" ht="38.25">
       <c r="A1158" s="60">
         <v>1157</v>
       </c>
@@ -54518,7 +54518,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1157','q_1201', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="25.5">
+    <row r="1159" spans="1:7" ht="38.25">
       <c r="A1159" s="60">
         <v>1158</v>
       </c>
@@ -54539,7 +54539,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1158','q_1201', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="25.5">
+    <row r="1160" spans="1:7" ht="38.25">
       <c r="A1160" s="60">
         <v>1159</v>
       </c>
@@ -54560,7 +54560,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1159','q_1201', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" s="60" customFormat="1" ht="30">
+    <row r="1161" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A1161" s="60">
         <v>1160</v>
       </c>
@@ -54650,7 +54650,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1163','q_1203', '0.NO','0.bv','0','q_1205');</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="25.5">
+    <row r="1165" spans="1:7" ht="38.25">
       <c r="A1165" s="60">
         <v>1164</v>
       </c>
@@ -54674,7 +54674,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1164','q_1203', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1205');</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="25.5">
+    <row r="1166" spans="1:7" ht="38.25">
       <c r="A1166" s="60">
         <v>1165</v>
       </c>
@@ -54696,7 +54696,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1165','q_1203', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="25.5">
+    <row r="1167" spans="1:7" ht="38.25">
       <c r="A1167" s="60">
         <v>1166</v>
       </c>
@@ -54718,7 +54718,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1166','q_1203', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="25.5">
+    <row r="1168" spans="1:7" ht="38.25">
       <c r="A1168" s="60">
         <v>1167</v>
       </c>
@@ -54740,7 +54740,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1167','q_1203', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="25.5">
+    <row r="1169" spans="1:7" ht="38.25">
       <c r="A1169" s="60">
         <v>1168</v>
       </c>
@@ -54762,7 +54762,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1168','q_1203', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" s="60" customFormat="1" ht="30">
+    <row r="1170" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A1170" s="60">
         <v>1169</v>
       </c>
@@ -54852,7 +54852,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1172','q_1205', '0.NO','0.bv','0','q_1207');</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="25.5">
+    <row r="1174" spans="1:7" ht="38.25">
       <c r="A1174" s="60">
         <v>1173</v>
       </c>
@@ -54876,7 +54876,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1173','q_1205', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1207');</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="25.5">
+    <row r="1175" spans="1:7" ht="38.25">
       <c r="A1175" s="60">
         <v>1174</v>
       </c>
@@ -54898,7 +54898,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1174','q_1205', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="25.5">
+    <row r="1176" spans="1:7" ht="38.25">
       <c r="A1176" s="60">
         <v>1175</v>
       </c>
@@ -54920,7 +54920,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1175','q_1205', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="25.5">
+    <row r="1177" spans="1:7" ht="38.25">
       <c r="A1177" s="60">
         <v>1176</v>
       </c>
@@ -54942,7 +54942,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1176','q_1205', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="25.5">
+    <row r="1178" spans="1:7" ht="38.25">
       <c r="A1178" s="60">
         <v>1177</v>
       </c>
@@ -54964,7 +54964,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1177','q_1205', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" s="60" customFormat="1" ht="30">
+    <row r="1179" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A1179" s="60">
         <v>1178</v>
       </c>
@@ -55054,7 +55054,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1181','q_1207', '0.NO','0.bv','0','q_1209');</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="25.5">
+    <row r="1183" spans="1:7" ht="38.25">
       <c r="A1183" s="60">
         <v>1182</v>
       </c>
@@ -55078,7 +55078,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1182','q_1207', '1.YES, ALONE ','1.nu¨v, GKv','1','q_1209');</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="25.5">
+    <row r="1184" spans="1:7" ht="38.25">
       <c r="A1184" s="60">
         <v>1183</v>
       </c>
@@ -55100,7 +55100,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1183','q_1207', '3.YES, WITH CHILD','3.nu¨v,  mšÍv‡bi mv‡_','3','');</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="25.5">
+    <row r="1185" spans="1:7" ht="38.25">
       <c r="A1185" s="60">
         <v>1184</v>
       </c>
@@ -55122,7 +55122,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1184','q_1207', '4.YES, WITH HUSBAND','4.nu¨v,  ¯^vgxi mv‡_','4','');</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" ht="25.5">
+    <row r="1186" spans="1:7" ht="38.25">
       <c r="A1186" s="60">
         <v>1185</v>
       </c>
@@ -55144,7 +55144,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1185','q_1207', '5.YES,WITH ADULT FEMALE','5.nu¨v, c~Y© eq¯‹ gwnjvi mv‡_','5','');</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" ht="25.5">
+    <row r="1187" spans="1:7" ht="38.25">
       <c r="A1187" s="60">
         <v>1186</v>
       </c>
@@ -55166,7 +55166,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1186','q_1207', '6.YES, WITH ADULT MALE ','6.nu¨v, c~Y© eq¯‹ cyiæ‡li mv‡_','6','');</v>
       </c>
     </row>
-    <row r="1188" spans="1:7" s="60" customFormat="1" ht="30">
+    <row r="1188" spans="1:7" s="60" customFormat="1" ht="38.25">
       <c r="A1188" s="60">
         <v>1187</v>
       </c>
@@ -55400,7 +55400,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1197','q_1212', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1199" spans="1:7" ht="25.5">
+    <row r="1199" spans="1:7" ht="38.25">
       <c r="A1199" s="60">
         <v>1198</v>
       </c>
@@ -55568,7 +55568,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1205','q_1213', '7.N/A ','7.cÖ‡hvR¨ bq/Avq K‡ib bv','7','');</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" ht="25.5">
+    <row r="1207" spans="1:7" ht="38.25">
       <c r="A1207" s="60">
         <v>1206</v>
       </c>
@@ -55590,7 +55590,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1206','q_1214_11', '11.Other property, specify','11.Ab¨vb¨ m¤cwË, wbw`©ó K‡i ejyb','0','');</v>
       </c>
     </row>
-    <row r="1208" spans="1:7" ht="25.5">
+    <row r="1208" spans="1:7" ht="38.25">
       <c r="A1208" s="60">
         <v>1207</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1207','q_1214_10', '10.Savings in the bank ','10.e¨vs‡K Rgv','0','');</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" ht="25.5">
+    <row r="1209" spans="1:7" ht="38.25">
       <c r="A1209" s="60">
         <v>1208</v>
       </c>
@@ -55632,7 +55632,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1208','q_1214_9', '9.Motor car','9.Bwb&amp;Rb PvwjZ Mvwo','0','');</v>
       </c>
     </row>
-    <row r="1210" spans="1:7" ht="25.5">
+    <row r="1210" spans="1:7" ht="38.25">
       <c r="A1210" s="60">
         <v>1209</v>
       </c>
@@ -55653,7 +55653,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1209','q_1214_8', '8.Jewellery, gold or other valuables ','8.m¦Y©vjsKvi, m¦Y© ev Ab¨v¨ g~j¨evb mvgMªx','0','');</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" ht="31.5">
+    <row r="1211" spans="1:7" ht="51">
       <c r="A1211" s="60">
         <v>1210</v>
       </c>
@@ -55674,7 +55674,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1210','q_1214_7', '7.Large household items (TV, bed, cooker) ','7.eo cvwievwiK wRwbm (wXwf, weQvbv, ivbœvi mvgMªx, BZ¨vw`)','0','');</v>
       </c>
     </row>
-    <row r="1212" spans="1:7" ht="31.5">
+    <row r="1212" spans="1:7" ht="51">
       <c r="A1212" s="60">
         <v>1211</v>
       </c>
@@ -55695,7 +55695,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1211','q_1214_6', '6.Produce or crops from certain fields or trees','6.wbw`©ó ‡Kvb Rwg ev MvQ ‡_‡K Drcvw`Z cb¨ A_ev km¨','0','');</v>
       </c>
     </row>
-    <row r="1213" spans="1:7" ht="30">
+    <row r="1213" spans="1:7" ht="38.25">
       <c r="A1213" s="60">
         <v>1212</v>
       </c>
@@ -55716,7 +55716,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1212','q_1214_5', '5.Small animals (chickens, pigs, goats, etc.)','5.‡QvU cïÐcvwL (nuvm gyiwM, QvMj, BZ¨vw`)','0','');</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" ht="25.5">
+    <row r="1214" spans="1:7" ht="38.25">
       <c r="A1214" s="60">
         <v>1213</v>
       </c>
@@ -55737,7 +55737,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1213','q_1214_4', '4.Large animals (cows, horses, etc.)','4.eo cï (Miy, ‡Nvov, BZ¨vw`)','0','');</v>
       </c>
     </row>
-    <row r="1215" spans="1:7" ht="25.5">
+    <row r="1215" spans="1:7" ht="38.25">
       <c r="A1215" s="60">
         <v>1214</v>
       </c>
@@ -55821,7 +55821,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1217','q_1214_Options', '1.NO','1.bvB','1','');</v>
       </c>
     </row>
-    <row r="1219" spans="1:7" ht="30">
+    <row r="1219" spans="1:7" ht="38.25">
       <c r="A1219" s="60">
         <v>1218</v>
       </c>
@@ -55842,7 +55842,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1218','q_1214_Options', '2.YES Own by self','2.GKK gvwjKvbv','2','');</v>
       </c>
     </row>
-    <row r="1220" spans="1:7" ht="30">
+    <row r="1220" spans="1:7" ht="38.25">
       <c r="A1220" s="60">
         <v>1219</v>
       </c>
@@ -55905,7 +55905,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1221','q_1215', '2.SPOUSE','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="1223" spans="1:7" ht="30">
+    <row r="1223" spans="1:7" ht="38.25">
       <c r="A1223" s="60">
         <v>1222</v>
       </c>
@@ -55989,7 +55989,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1225','q_1216', '2.SPOUSE','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="1227" spans="1:7" ht="30">
+    <row r="1227" spans="1:7" ht="38.25">
       <c r="A1227" s="60">
         <v>1226</v>
       </c>
@@ -56073,7 +56073,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1229','q_1217', '2.SPOUSE','2.¯^vgx','2','');</v>
       </c>
     </row>
-    <row r="1231" spans="1:7" ht="30">
+    <row r="1231" spans="1:7" ht="38.25">
       <c r="A1231" s="60">
         <v>1230</v>
       </c>
@@ -56115,7 +56115,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1231','q_1217', '4.SOMEONE ELSE','4.Ab¨ †KD','4','');</v>
       </c>
     </row>
-    <row r="1233" spans="1:7" ht="25.5">
+    <row r="1233" spans="1:7" ht="38.25">
       <c r="A1233" s="60">
         <v>1232</v>
       </c>
@@ -56136,7 +56136,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1232','q_1218', '1.SELF/OWN CHOICE','1.cy‡ivUvq wb‡Ri B”Qvq LiP Ki‡Z cv‡ib','1','');</v>
       </c>
     </row>
-    <row r="1234" spans="1:7" ht="25.5">
+    <row r="1234" spans="1:7" ht="38.25">
       <c r="A1234" s="60">
         <v>1233</v>
       </c>
@@ -56157,7 +56157,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1233','q_1218', '2.GIVE PART TO HUSBAND/PARTNER','2.wKQz ¯^vgx‡K w`‡q w`‡Z nq','2','');</v>
       </c>
     </row>
-    <row r="1235" spans="1:7" ht="25.5">
+    <row r="1235" spans="1:7" ht="38.25">
       <c r="A1235" s="60">
         <v>1234</v>
       </c>
@@ -56178,7 +56178,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1234','q_1218', '3.GIVE ALL TO HUSBAND/PARTNER','3.cy‡ivUvq ¯^vgx‡K w`‡q w`‡Z nq','3','');</v>
       </c>
     </row>
-    <row r="1236" spans="1:7" ht="25.5">
+    <row r="1236" spans="1:7" ht="38.25">
       <c r="A1236" s="60">
         <v>1235</v>
       </c>
@@ -56199,7 +56199,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1235','q_1218', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb / DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="1237" spans="1:7" ht="25.5">
+    <row r="1237" spans="1:7" ht="38.25">
       <c r="A1237" s="60">
         <v>1236</v>
       </c>
@@ -56223,7 +56223,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1236','q_1218', '7.NO INCOME ','7.‡ivRMvi K‡ibbv','7','q_1220');</v>
       </c>
     </row>
-    <row r="1238" spans="1:7" ht="25.5">
+    <row r="1238" spans="1:7" ht="38.25">
       <c r="A1238" s="60">
         <v>1237</v>
       </c>
@@ -56244,7 +56244,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1237','q_1219', '1.MORE THAN HUSBAND','1.¯^vgxi †P‡q †ekx UvKv †`b','1','');</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" ht="25.5">
+    <row r="1239" spans="1:7" ht="38.25">
       <c r="A1239" s="60">
         <v>1238</v>
       </c>
@@ -56265,7 +56265,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1238','q_1219', '2.LESS THAN HUSBAND','2.¯^vgxi †P‡q Kg UvKv †`b','2','');</v>
       </c>
     </row>
-    <row r="1240" spans="1:7" ht="25.5">
+    <row r="1240" spans="1:7" ht="38.25">
       <c r="A1240" s="60">
         <v>1239</v>
       </c>
@@ -56307,7 +56307,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1240','q_1219', '8.DO NOT KNOW','8.Rvwb bv','8','');</v>
       </c>
     </row>
-    <row r="1242" spans="1:7" ht="25.5">
+    <row r="1242" spans="1:7" ht="38.25">
       <c r="A1242" s="60">
         <v>1241</v>
       </c>
@@ -56391,7 +56391,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1244','q_1220', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1246" spans="1:7" ht="25.5">
+    <row r="1246" spans="1:7" ht="38.25">
       <c r="A1246" s="60">
         <v>1245</v>
       </c>
@@ -56412,7 +56412,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1245','q_1220', '8.DO NOT KNOW','8.Rvwb bv/ g‡b co‡Q bv','8','');</v>
       </c>
     </row>
-    <row r="1247" spans="1:7" ht="25.5">
+    <row r="1247" spans="1:7" ht="38.25">
       <c r="A1247" s="60">
         <v>1246</v>
       </c>
@@ -56496,7 +56496,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1249','q_1221', '2.NO','2.bv','2','');</v>
       </c>
     </row>
-    <row r="1251" spans="1:7" ht="25.5">
+    <row r="1251" spans="1:7" ht="38.25">
       <c r="A1251" s="60">
         <v>1250</v>
       </c>
@@ -56517,7 +56517,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1250','q_1221', '8.DO NOT KNOW','8.Rvwb bv/ g‡b †bB','8','');</v>
       </c>
     </row>
-    <row r="1252" spans="1:7" ht="25.5">
+    <row r="1252" spans="1:7" ht="38.25">
       <c r="A1252" s="60">
         <v>1251</v>
       </c>
@@ -56538,7 +56538,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1251','q_1221', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb / DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="1253" spans="1:7" ht="25.5">
+    <row r="1253" spans="1:7" ht="38.25">
       <c r="A1253" s="60">
         <v>1252</v>
       </c>
@@ -56559,7 +56559,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1252','q_1301', '1.CARD COMPLETED','1.DËi`vZv KvW© ciY K‡i e¨v‡M ivL‡j','1','');</v>
       </c>
     </row>
-    <row r="1254" spans="1:7" ht="25.5">
+    <row r="1254" spans="1:7" ht="38.25">
       <c r="A1254" s="60">
         <v>1253</v>
       </c>
@@ -56580,7 +56580,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1253','q_1301', '2.CARD NOT COMPLETED','2.KvW© ciY bv Ki‡j','2','');</v>
       </c>
     </row>
-    <row r="1255" spans="1:7" ht="25.5">
+    <row r="1255" spans="1:7" ht="38.25">
       <c r="A1255" s="60">
         <v>1254</v>
       </c>
@@ -56601,7 +56601,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1254','q_1301_bgd', '1.CARD COMPLETED','1.DËi`vZv KvW© ciY K‡i e¨v‡M ivL‡j','1','');</v>
       </c>
     </row>
-    <row r="1256" spans="1:7" ht="25.5">
+    <row r="1256" spans="1:7" ht="38.25">
       <c r="A1256" s="60">
         <v>1255</v>
       </c>
@@ -56664,7 +56664,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1257','q_1303', '2.BAD/WORSE','2.Lvivc','2','');</v>
       </c>
     </row>
-    <row r="1259" spans="1:7" ht="25.5">
+    <row r="1259" spans="1:7" ht="38.25">
       <c r="A1259" s="60">
         <v>1258</v>
       </c>

--- a/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
+++ b/DB and Documents/WASHB_DRAFT_Mathernal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8287" uniqueCount="2562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8287" uniqueCount="2581">
   <si>
     <t>SLNo</t>
   </si>
@@ -9872,6 +9872,63 @@
   </si>
   <si>
     <t>msgBhv</t>
+  </si>
+  <si>
+    <t>q_207_1</t>
+  </si>
+  <si>
+    <t>q_207_2</t>
+  </si>
+  <si>
+    <t>q_207_3</t>
+  </si>
+  <si>
+    <t>q_207_4</t>
+  </si>
+  <si>
+    <t>q_207_5</t>
+  </si>
+  <si>
+    <t>q_207_6</t>
+  </si>
+  <si>
+    <t>q_207_7</t>
+  </si>
+  <si>
+    <t>q_207_8</t>
+  </si>
+  <si>
+    <t>q_207_9</t>
+  </si>
+  <si>
+    <t>q_207_10</t>
+  </si>
+  <si>
+    <t>q_403_1</t>
+  </si>
+  <si>
+    <t>q_403_2</t>
+  </si>
+  <si>
+    <t>q_403_4</t>
+  </si>
+  <si>
+    <t>q_403_5</t>
+  </si>
+  <si>
+    <t>q_403_6</t>
+  </si>
+  <si>
+    <t>q_403_7</t>
+  </si>
+  <si>
+    <t>q_403_8</t>
+  </si>
+  <si>
+    <t>q_403_9</t>
+  </si>
+  <si>
+    <t>q_403_3</t>
   </si>
 </sst>
 </file>
@@ -11640,8 +11697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK481"/>
   <sheetViews>
-    <sheetView topLeftCell="A393" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13859,11 +13916,11 @@
       <c r="B54" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>759</v>
+      <c r="C54" s="84" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>760</v>
       </c>
       <c r="E54" s="59" t="s">
         <v>136</v>
@@ -13886,7 +13943,7 @@
       <c r="U54" s="83"/>
       <c r="V54" s="83" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q_207','frmsinglechoice', 'tblMainQuesSc','207.MZ Pvi mßv‡n Avcbvi Amy¯’Zvi Rb¨, Avcwb wK †Kvb Wv³vi ev Ab¨ ‡Kvb wPwKrm‡Ki civgk© wb‡q‡Qb?hw` nu¨v nq: Kvi Kv‡Q Avcwb civgk© wb‡q‡Qb?†cÖve Kiæb: Ab¨ Kvi Kv‡Q Avcwb civgk© wb‡q‡Qb ?','207.In the past 4  weeks, did you consult a doctor or other professional or traditional health worker because you yourself were sick? IF YES: Whom did you consult?','','msg301','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q_207','frmmultiplechoice', 'tblMainQuesMc','207.MZ Pvi mßv‡n Avcbvi Amy¯’Zvi Rb¨, Avcwb wK †Kvb Wv³vi ev Ab¨ ‡Kvb wPwKrm‡Ki civgk© wb‡q‡Qb?hw` nu¨v nq: Kvi Kv‡Q Avcwb civgk© wb‡q‡Qb?†cÖve Kiæb: Ab¨ Kvi Kv‡Q Avcwb civgk© wb‡q‡Qb ?','207.In the past 4  weeks, did you consult a doctor or other professional or traditional health worker because you yourself were sick? IF YES: Whom did you consult?','','msg301','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="55" spans="1:22" s="57" customFormat="1" ht="31.5">
@@ -14915,11 +14972,11 @@
       <c r="B81" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>759</v>
+      <c r="C81" s="84" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D81" s="84" t="s">
+        <v>760</v>
       </c>
       <c r="E81" s="59" t="s">
         <v>2400</v>
@@ -14942,7 +14999,7 @@
       <c r="U81" s="83"/>
       <c r="V81" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('80', 'q_403','frmsinglechoice', 'tblMainQuesSc','403.GB ev”Pv (ev”Pvi bvg) hLb M‡f©/†c‡U wQj, ZLb Mf©Kvjxb †gwW‡Kj †PKAv‡ci Rb¨ Avcwb Kv‡K †`wL‡qwQ‡jb? (DËi nu¨v n‡j) Kv‡K †`wL‡qwQ‡jb?','403.When you were pregnant with this child (NAME), did you see anyone for an antenatal check?IF YES: Whom did you see?Anyone else?','','q_404','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('80', 'q_403','frmmultiplechoice', 'tblMainQuesMc','403.GB ev”Pv (ev”Pvi bvg) hLb M‡f©/†c‡U wQj, ZLb Mf©Kvjxb †gwW‡Kj †PKAv‡ci Rb¨ Avcwb Kv‡K †`wL‡qwQ‡jb? (DËi nu¨v n‡j) Kv‡K †`wL‡qwQ‡jb?','403.When you were pregnant with this child (NAME), did you see anyone for an antenatal check?IF YES: Whom did you see?Anyone else?','','q_404','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="57" customFormat="1" ht="31.5">
@@ -30120,7 +30177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1256" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G1274"/>
     </sheetView>
   </sheetViews>
@@ -33635,8 +33692,8 @@
       <c r="A162" s="83">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>117</v>
+      <c r="B162" s="84" t="s">
+        <v>2562</v>
       </c>
       <c r="C162" s="60" t="s">
         <v>474</v>
@@ -33649,15 +33706,15 @@
       </c>
       <c r="G162" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('161','q_207', 'A.NO ONE CONSULTED ','K.Kv‡iv civgk© †bq wb','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('161','q_207_1', 'A.NO ONE CONSULTED ','K.Kv‡iv civgk© †bq wb','1','');</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="25.5">
       <c r="A163" s="83">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>117</v>
+      <c r="B163" s="84" t="s">
+        <v>2563</v>
       </c>
       <c r="C163" s="60" t="s">
         <v>475</v>
@@ -33665,20 +33722,20 @@
       <c r="D163" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="E163">
-        <v>2</v>
+      <c r="E163" s="83">
+        <v>1</v>
       </c>
       <c r="G163" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q_207', 'B.DOCTOR','L.Wv³vi','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q_207_2', 'B.DOCTOR','L.Wv³vi','1','');</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="25.5">
       <c r="A164" s="83">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>117</v>
+      <c r="B164" s="84" t="s">
+        <v>2564</v>
       </c>
       <c r="C164" s="60" t="s">
         <v>476</v>
@@ -33686,20 +33743,20 @@
       <c r="D164" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="E164">
-        <v>3</v>
+      <c r="E164" s="83">
+        <v>1</v>
       </c>
       <c r="G164" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q_207', 'C.NURSE/ MIDWIFE ','M.bvm©/ avÎx','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q_207_3', 'C.NURSE/ MIDWIFE ','M.bvm©/ avÎx','1','');</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="25.5">
       <c r="A165" s="83">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>117</v>
+      <c r="B165" s="84" t="s">
+        <v>2565</v>
       </c>
       <c r="C165" s="60" t="s">
         <v>477</v>
@@ -33707,20 +33764,20 @@
       <c r="D165" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E165">
-        <v>4</v>
+      <c r="E165" s="83">
+        <v>1</v>
       </c>
       <c r="G165" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q_207', 'D.Govt. Health Worker','N.miKvix  ¯^v¯’¨Kgx©','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q_207_4', 'D.Govt. Health Worker','N.miKvix  ¯^v¯’¨Kgx©','1','');</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="25.5">
       <c r="A166" s="83">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>117</v>
+      <c r="B166" s="84" t="s">
+        <v>2566</v>
       </c>
       <c r="C166" s="60" t="s">
         <v>478</v>
@@ -33728,20 +33785,20 @@
       <c r="D166" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E166">
-        <v>5</v>
+      <c r="E166" s="83">
+        <v>1</v>
       </c>
       <c r="G166" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('165','q_207', 'E.NGO Health Worker','O.Gb.wR.I ¯^v¯’¨Kgx©','5','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('165','q_207_5', 'E.NGO Health Worker','O.Gb.wR.I ¯^v¯’¨Kgx©','1','');</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="25.5">
       <c r="A167" s="83">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>117</v>
+      <c r="B167" s="84" t="s">
+        <v>2567</v>
       </c>
       <c r="C167" s="60" t="s">
         <v>479</v>
@@ -33749,20 +33806,20 @@
       <c r="D167" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E167">
-        <v>6</v>
+      <c r="E167" s="83">
+        <v>1</v>
       </c>
       <c r="G167" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('166','q_207', 'F.COUNSELLOR','P.civgk© `vZv','6','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('166','q_207_6', 'F.COUNSELLOR','P.civgk© `vZv','1','');</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="25.5">
       <c r="A168" s="83">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>117</v>
+      <c r="B168" s="84" t="s">
+        <v>2568</v>
       </c>
       <c r="C168" s="60" t="s">
         <v>480</v>
@@ -33770,20 +33827,20 @@
       <c r="D168" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="E168">
-        <v>7</v>
+      <c r="E168" s="83">
+        <v>1</v>
       </c>
       <c r="G168" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q_207', 'G.PHARMACIST','Q.Jla we‡µZv','7','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q_207_7', 'G.PHARMACIST','Q.Jla we‡µZv','1','');</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="25.5">
       <c r="A169" s="83">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>117</v>
+      <c r="B169" s="84" t="s">
+        <v>2569</v>
       </c>
       <c r="C169" s="60" t="s">
         <v>481</v>
@@ -33791,20 +33848,20 @@
       <c r="D169" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="E169">
-        <v>8</v>
+      <c r="E169" s="83">
+        <v>1</v>
       </c>
       <c r="G169" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q_207', 'H.TRADITIONAL HEALER','R.mbvZb wPwKrmK','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q_207_8', 'H.TRADITIONAL HEALER','R.mbvZb wPwKrmK','1','');</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="25.5">
       <c r="A170" s="83">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>117</v>
+      <c r="B170" s="84" t="s">
+        <v>2570</v>
       </c>
       <c r="C170" s="60" t="s">
         <v>482</v>
@@ -33812,20 +33869,20 @@
       <c r="D170" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E170">
-        <v>9</v>
+      <c r="E170" s="83">
+        <v>1</v>
       </c>
       <c r="G170" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('169','q_207', 'I.TRADITIONAL BIRTH ATTENDANT','S.`vB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('169','q_207_9', 'I.TRADITIONAL BIRTH ATTENDANT','S.`vB','1','');</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="25.5">
       <c r="A171" s="83">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>117</v>
+      <c r="B171" s="84" t="s">
+        <v>2571</v>
       </c>
       <c r="C171" s="60" t="s">
         <v>483</v>
@@ -33833,15 +33890,15 @@
       <c r="D171" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E171">
-        <v>10</v>
+      <c r="E171" s="83">
+        <v>1</v>
       </c>
       <c r="F171" s="58" t="s">
         <v>2478</v>
       </c>
       <c r="G171" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('170','q_207', 'X.OTHER','T.Ab¨vb¨','10','q_207_other');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('170','q_207_10', 'X.OTHER','T.Ab¨vb¨','1','q_207_other');</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="25.5">
@@ -34496,8 +34553,8 @@
       <c r="A202" s="83">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>189</v>
+      <c r="B202" s="84" t="s">
+        <v>2572</v>
       </c>
       <c r="C202" s="60" t="s">
         <v>543</v>
@@ -34510,15 +34567,15 @@
       </c>
       <c r="G202" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('201','q_403', '1.NO ONE','1.KvD‡K bv','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('201','q_403_1', '1.NO ONE','1.KvD‡K bv','1','');</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="25.5">
       <c r="A203" s="83">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>189</v>
+      <c r="B203" s="84" t="s">
+        <v>2573</v>
       </c>
       <c r="C203" s="60" t="s">
         <v>545</v>
@@ -34526,20 +34583,20 @@
       <c r="D203" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="E203" s="54">
-        <v>2</v>
+      <c r="E203" s="89">
+        <v>1</v>
       </c>
       <c r="G203" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q_403', '2.DOCTOR','2.Wv³vi','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q_403_2', '2.DOCTOR','2.Wv³vi','1','');</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="25.5">
       <c r="A204" s="83">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>189</v>
+      <c r="B204" s="84" t="s">
+        <v>2580</v>
       </c>
       <c r="C204" s="60" t="s">
         <v>547</v>
@@ -34547,20 +34604,20 @@
       <c r="D204" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="E204" s="54">
-        <v>3</v>
+      <c r="E204" s="89">
+        <v>1</v>
       </c>
       <c r="G204" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('203','q_403', '3.OBSTETRICIAN/GYNAECOLOGIST','3.avÎxwe`¨vwekvi`/¯¿x†ivMwekvi`','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('203','q_403_3', '3.OBSTETRICIAN/GYNAECOLOGIST','3.avÎxwe`¨vwekvi`/¯¿x†ivMwekvi`','1','');</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="25.5">
       <c r="A205" s="83">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>189</v>
+      <c r="B205" s="84" t="s">
+        <v>2574</v>
       </c>
       <c r="C205" s="60" t="s">
         <v>549</v>
@@ -34568,20 +34625,20 @@
       <c r="D205" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E205" s="54">
-        <v>4</v>
+      <c r="E205" s="89">
+        <v>1</v>
       </c>
       <c r="G205" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q_403', '4.NURSE/MIDWIFE','4.†mweKv/avÎx','4','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q_403_4', '4.NURSE/MIDWIFE','4.†mweKv/avÎx','1','');</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="25.5">
       <c r="A206" s="83">
         <v>205</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>189</v>
+      <c r="B206" s="84" t="s">
+        <v>2575</v>
       </c>
       <c r="C206" s="60" t="s">
         <v>551</v>
@@ -34589,20 +34646,20 @@
       <c r="D206" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="E206" s="54">
-        <v>5</v>
+      <c r="E206" s="89">
+        <v>1</v>
       </c>
       <c r="G206" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('205','q_403', '5.FWV/CSBA/SBA/MA/SACMO','5.miKvix ¯^v¯’¨ Kg©x','5','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('205','q_403_5', '5.FWV/CSBA/SBA/MA/SACMO','5.miKvix ¯^v¯’¨ Kg©x','1','');</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="25.5">
       <c r="A207" s="83">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>189</v>
+      <c r="B207" s="84" t="s">
+        <v>2576</v>
       </c>
       <c r="C207" s="60" t="s">
         <v>553</v>
@@ -34610,20 +34667,20 @@
       <c r="D207" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="E207" s="54">
-        <v>6</v>
+      <c r="E207" s="89">
+        <v>1</v>
       </c>
       <c r="G207" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q_403', '6.NGO HEALTH WORKER ','6.Gb.wR.I.¯^v¯’¨ Kg©x','6','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q_403_6', '6.NGO HEALTH WORKER ','6.Gb.wR.I.¯^v¯’¨ Kg©x','1','');</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="25.5">
       <c r="A208" s="83">
         <v>207</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>189</v>
+      <c r="B208" s="84" t="s">
+        <v>2577</v>
       </c>
       <c r="C208" s="60" t="s">
         <v>555</v>
@@ -34631,20 +34688,20 @@
       <c r="D208" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="E208" s="54">
-        <v>7</v>
+      <c r="E208" s="89">
+        <v>1</v>
       </c>
       <c r="G208" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q_403', '7.VILLAGE DOCTOR','7.cjøx wPwKrmK','7','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q_403_7', '7.VILLAGE DOCTOR','7.cjøx wPwKrmK','1','');</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="25.5">
       <c r="A209" s="83">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>189</v>
+      <c r="B209" s="84" t="s">
+        <v>2578</v>
       </c>
       <c r="C209" s="60" t="s">
         <v>557</v>
@@ -34652,20 +34709,20 @@
       <c r="D209" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="E209" s="54">
-        <v>8</v>
+      <c r="E209" s="89">
+        <v>1</v>
       </c>
       <c r="G209" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('208','q_403', '8.TRADITIONAL BIRTH ATTENDANT','8.`vB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('208','q_403_8', '8.TRADITIONAL BIRTH ATTENDANT','8.`vB','1','');</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="25.5">
       <c r="A210" s="83">
         <v>209</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>189</v>
+      <c r="B210" s="84" t="s">
+        <v>2579</v>
       </c>
       <c r="C210" s="60" t="s">
         <v>559</v>
@@ -34673,15 +34730,15 @@
       <c r="D210" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E210" s="54">
-        <v>9</v>
+      <c r="E210" s="89">
+        <v>1</v>
       </c>
       <c r="F210" s="58" t="s">
         <v>2484</v>
       </c>
       <c r="G210" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('209','q_403', '9.OTHER','9.Ab¨vb¨','9','q_403_other');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('209','q_403_9', '9.OTHER','9.Ab¨vb¨','1','q_403_other');</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="25.5">
